--- a/outcome/appendix/forecast/Echinococcosis.xlsx
+++ b/outcome/appendix/forecast/Echinococcosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>398.615629310354</v>
+        <v>361.696154349007</v>
       </c>
       <c r="C2" t="n">
-        <v>254.458986021495</v>
+        <v>270.616811911202</v>
       </c>
       <c r="D2" t="n">
-        <v>184.207334355357</v>
+        <v>235.68912749265</v>
       </c>
       <c r="E2" t="n">
-        <v>533.927037801522</v>
+        <v>507.63652817899</v>
       </c>
       <c r="F2" t="n">
-        <v>616.396865795809</v>
+        <v>623.462861322789</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>286</v>
       </c>
       <c r="I2" t="n">
-        <v>112.615629310354</v>
+        <v>75.696154349007</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>247.619433541792</v>
+        <v>267.027146680637</v>
       </c>
       <c r="C3" t="n">
-        <v>113.823375335804</v>
+        <v>206.143008314658</v>
       </c>
       <c r="D3" t="n">
-        <v>13.1757780462336</v>
+        <v>181.987433832639</v>
       </c>
       <c r="E3" t="n">
-        <v>395.399382670972</v>
+        <v>359.34989320448</v>
       </c>
       <c r="F3" t="n">
-        <v>464.520724748523</v>
+        <v>428.885564024523</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>91</v>
       </c>
       <c r="I3" t="n">
-        <v>156.619433541792</v>
+        <v>176.027146680637</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>446.257386466501</v>
+        <v>434.486830036884</v>
       </c>
       <c r="C4" t="n">
-        <v>288.075944263886</v>
+        <v>311.698090393412</v>
       </c>
       <c r="D4" t="n">
-        <v>204.9212520357</v>
+        <v>266.698093234302</v>
       </c>
       <c r="E4" t="n">
-        <v>608.235589270573</v>
+        <v>646.773733428427</v>
       </c>
       <c r="F4" t="n">
-        <v>660.056042678023</v>
+        <v>828.301060240618</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>249</v>
       </c>
       <c r="I4" t="n">
-        <v>197.257386466501</v>
+        <v>185.486830036884</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>342.227781141907</v>
+        <v>380.669009249926</v>
       </c>
       <c r="C5" t="n">
-        <v>168.300327973703</v>
+        <v>276.411443484051</v>
       </c>
       <c r="D5" t="n">
-        <v>68.7991773121876</v>
+        <v>237.702233181261</v>
       </c>
       <c r="E5" t="n">
-        <v>517.333134170979</v>
+        <v>556.976207073289</v>
       </c>
       <c r="F5" t="n">
-        <v>573.410454871984</v>
+        <v>704.45779772126</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,10 +544,10 @@
         <v>362</v>
       </c>
       <c r="I5" t="n">
-        <v>-19.7722188580931</v>
+        <v>18.669009249926</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>329.15355005773</v>
+        <v>365.470119911463</v>
       </c>
       <c r="C6" t="n">
-        <v>152.536468311301</v>
+        <v>265.062484502053</v>
       </c>
       <c r="D6" t="n">
-        <v>77.4237187724236</v>
+        <v>227.830026157153</v>
       </c>
       <c r="E6" t="n">
-        <v>514.647868717615</v>
+        <v>535.631815007598</v>
       </c>
       <c r="F6" t="n">
-        <v>594.639547686435</v>
+        <v>678.275473082915</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>266</v>
       </c>
       <c r="I6" t="n">
-        <v>63.1535500577304</v>
+        <v>99.4701199114633</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>308.662835334043</v>
+        <v>333.394236277129</v>
       </c>
       <c r="C7" t="n">
-        <v>129.920855848675</v>
+        <v>243.403282072513</v>
       </c>
       <c r="D7" t="n">
-        <v>1.61924000764606</v>
+        <v>209.794757820851</v>
       </c>
       <c r="E7" t="n">
-        <v>496.246838002994</v>
+        <v>484.080777881584</v>
       </c>
       <c r="F7" t="n">
-        <v>584.462377798684</v>
+        <v>608.909062939561</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>264</v>
       </c>
       <c r="I7" t="n">
-        <v>44.6628353340428</v>
+        <v>69.3942362771286</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>355.551994344631</v>
+        <v>346.897207554563</v>
       </c>
       <c r="C8" t="n">
-        <v>186.044878530941</v>
+        <v>250.146125971933</v>
       </c>
       <c r="D8" t="n">
-        <v>69.8699895443898</v>
+        <v>214.491572130948</v>
       </c>
       <c r="E8" t="n">
-        <v>530.968806290455</v>
+        <v>512.59695287508</v>
       </c>
       <c r="F8" t="n">
-        <v>621.258615885297</v>
+        <v>652.95928753366</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>283</v>
       </c>
       <c r="I8" t="n">
-        <v>72.5519943446313</v>
+        <v>63.8972075545632</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>351.517825987081</v>
+        <v>393.824928184502</v>
       </c>
       <c r="C9" t="n">
-        <v>143.839978626383</v>
+        <v>276.616702380538</v>
       </c>
       <c r="D9" t="n">
-        <v>49.938792606471</v>
+        <v>234.626114964759</v>
       </c>
       <c r="E9" t="n">
-        <v>555.826303591504</v>
+        <v>604.556751182782</v>
       </c>
       <c r="F9" t="n">
-        <v>665.138512726588</v>
+        <v>792.028212032497</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>283</v>
       </c>
       <c r="I9" t="n">
-        <v>68.5178259870814</v>
+        <v>110.824928184502</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>360.542327973983</v>
+        <v>346.399349340062</v>
       </c>
       <c r="C10" t="n">
-        <v>157.368409841105</v>
+        <v>246.68665720457</v>
       </c>
       <c r="D10" t="n">
-        <v>80.2095184534348</v>
+        <v>210.430938673115</v>
       </c>
       <c r="E10" t="n">
-        <v>567.215867909978</v>
+        <v>521.138409171007</v>
       </c>
       <c r="F10" t="n">
-        <v>662.106111176734</v>
+        <v>672.601272016531</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>336</v>
       </c>
       <c r="I10" t="n">
-        <v>24.542327973983</v>
+        <v>10.3993493400619</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>293.46087298766</v>
+        <v>315.566458621319</v>
       </c>
       <c r="C11" t="n">
-        <v>80.8934111986435</v>
+        <v>226.594328159568</v>
       </c>
       <c r="D11" t="n">
-        <v>-25.7661343600392</v>
+        <v>193.95517361688</v>
       </c>
       <c r="E11" t="n">
-        <v>501.87445706726</v>
+        <v>469.128132944395</v>
       </c>
       <c r="F11" t="n">
-        <v>627.93690725391</v>
+        <v>600.217031810095</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>390</v>
       </c>
       <c r="I11" t="n">
-        <v>-96.5391270123401</v>
+        <v>-74.4335413786814</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>440.651129481863</v>
+        <v>424.908380704712</v>
       </c>
       <c r="C12" t="n">
-        <v>231.33919278433</v>
+        <v>288.92200607691</v>
       </c>
       <c r="D12" t="n">
-        <v>102.29561519997</v>
+        <v>241.865549457227</v>
       </c>
       <c r="E12" t="n">
-        <v>652.699923636423</v>
+        <v>684.879685111142</v>
       </c>
       <c r="F12" t="n">
-        <v>764.256859435425</v>
+        <v>931.362101546168</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>403</v>
       </c>
       <c r="I12" t="n">
-        <v>37.6511294818634</v>
+        <v>21.9083807047123</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>491.241489023573</v>
+        <v>539.247642785708</v>
       </c>
       <c r="C13" t="n">
-        <v>267.667564995188</v>
+        <v>348.574605524672</v>
       </c>
       <c r="D13" t="n">
-        <v>162.637616021754</v>
+        <v>286.050918017692</v>
       </c>
       <c r="E13" t="n">
-        <v>712.98080041404</v>
+        <v>941.749118017581</v>
       </c>
       <c r="F13" t="n">
-        <v>810.940232064923</v>
+        <v>1366.61155497181</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>412</v>
       </c>
       <c r="I13" t="n">
-        <v>79.241489023573</v>
+        <v>127.247642785708</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>395.732030419518</v>
+        <v>361.696154349007</v>
       </c>
       <c r="C14" t="n">
-        <v>153.023339660798</v>
+        <v>249.7292763287</v>
       </c>
       <c r="D14" t="n">
-        <v>18.2271964998924</v>
+        <v>210.346467271685</v>
       </c>
       <c r="E14" t="n">
-        <v>631.158171274081</v>
+        <v>569.603220600606</v>
       </c>
       <c r="F14" t="n">
-        <v>769.090502926381</v>
+        <v>760.806211963167</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,10 +832,10 @@
         <v>378</v>
       </c>
       <c r="I14" t="n">
-        <v>17.732030419518</v>
+        <v>-16.303845650993</v>
       </c>
       <c r="J14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>266.864895707525</v>
+        <v>267.027146680637</v>
       </c>
       <c r="C15" t="n">
-        <v>19.2081978928955</v>
+        <v>192.424348295824</v>
       </c>
       <c r="D15" t="n">
-        <v>-87.9515402920382</v>
+        <v>164.951485310136</v>
       </c>
       <c r="E15" t="n">
-        <v>513.514874506626</v>
+        <v>394.95023733199</v>
       </c>
       <c r="F15" t="n">
-        <v>614.92559943496</v>
+        <v>503.443628013064</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>224</v>
       </c>
       <c r="I15" t="n">
-        <v>42.8648957075249</v>
+        <v>43.0271466806366</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>464.555122805878</v>
+        <v>434.486830036884</v>
       </c>
       <c r="C16" t="n">
-        <v>252.651671968816</v>
+        <v>287.012342560211</v>
       </c>
       <c r="D16" t="n">
-        <v>83.4756087005163</v>
+        <v>237.528383627457</v>
       </c>
       <c r="E16" t="n">
-        <v>700.355850613489</v>
+        <v>732.696606411106</v>
       </c>
       <c r="F16" t="n">
-        <v>815.894702070248</v>
+        <v>1032.93875334815</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>430</v>
       </c>
       <c r="I16" t="n">
-        <v>34.5551228058777</v>
+        <v>4.48683003688393</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>347.368661281564</v>
+        <v>380.669009249926</v>
       </c>
       <c r="C17" t="n">
-        <v>86.8634939393047</v>
+        <v>256.102149010378</v>
       </c>
       <c r="D17" t="n">
-        <v>-69.1416267811753</v>
+        <v>213.48340090927</v>
       </c>
       <c r="E17" t="n">
-        <v>612.869619677378</v>
+        <v>623.737057696722</v>
       </c>
       <c r="F17" t="n">
-        <v>730.492522249605</v>
+        <v>859.251937676785</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>304</v>
       </c>
       <c r="I17" t="n">
-        <v>43.3686612815643</v>
+        <v>76.669009249926</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>330.257003823233</v>
+        <v>365.470119911463</v>
       </c>
       <c r="C18" t="n">
-        <v>91.2856689559036</v>
+        <v>246.310245722931</v>
       </c>
       <c r="D18" t="n">
-        <v>-82.3009557542393</v>
+        <v>205.464835208387</v>
       </c>
       <c r="E18" t="n">
-        <v>577.257457118395</v>
+        <v>597.197355138118</v>
       </c>
       <c r="F18" t="n">
-        <v>698.874025626916</v>
+        <v>820.911394443324</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>265</v>
       </c>
       <c r="I18" t="n">
-        <v>65.2570038232328</v>
+        <v>100.470119911463</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>306.1197431927</v>
+        <v>333.394236277129</v>
       </c>
       <c r="C19" t="n">
-        <v>34.0859473341225</v>
+        <v>227.147459757763</v>
       </c>
       <c r="D19" t="n">
-        <v>-94.4776385462871</v>
+        <v>190.303851315616</v>
       </c>
       <c r="E19" t="n">
-        <v>588.710929927524</v>
+        <v>535.738030305361</v>
       </c>
       <c r="F19" t="n">
-        <v>715.802356335071</v>
+        <v>726.814119980688</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>238</v>
       </c>
       <c r="I19" t="n">
-        <v>68.1197431927001</v>
+        <v>95.3942362771286</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>353.70306747536</v>
+        <v>346.897207554563</v>
       </c>
       <c r="C20" t="n">
-        <v>75.8329958899584</v>
+        <v>233.507736341667</v>
       </c>
       <c r="D20" t="n">
-        <v>-63.9447844778321</v>
+        <v>194.690819016321</v>
       </c>
       <c r="E20" t="n">
-        <v>643.298617600804</v>
+        <v>567.923592163739</v>
       </c>
       <c r="F20" t="n">
-        <v>786.527699907761</v>
+        <v>781.843323042175</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>306</v>
       </c>
       <c r="I20" t="n">
-        <v>47.7030674753599</v>
+        <v>40.8972075545632</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>375.539079065712</v>
+        <v>393.824928184502</v>
       </c>
       <c r="C21" t="n">
-        <v>75.3861488174108</v>
+        <v>257.638202973404</v>
       </c>
       <c r="D21" t="n">
-        <v>-75.8758828196001</v>
+        <v>212.410563761436</v>
       </c>
       <c r="E21" t="n">
-        <v>649.524242144391</v>
+        <v>674.535188558079</v>
       </c>
       <c r="F21" t="n">
-        <v>791.853667759146</v>
+        <v>963.133957899475</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>241</v>
       </c>
       <c r="I21" t="n">
-        <v>134.539079065712</v>
+        <v>152.824928184502</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>354.072273164503</v>
+        <v>346.399349340062</v>
       </c>
       <c r="C22" t="n">
-        <v>76.3560681874776</v>
+        <v>230.901546851088</v>
       </c>
       <c r="D22" t="n">
-        <v>-79.0345044743827</v>
+        <v>191.772800101882</v>
       </c>
       <c r="E22" t="n">
-        <v>630.050919490548</v>
+        <v>575.853885253706</v>
       </c>
       <c r="F22" t="n">
-        <v>784.447332202588</v>
+        <v>802.495093460347</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>296</v>
       </c>
       <c r="I22" t="n">
-        <v>58.0722731645035</v>
+        <v>50.3993493400619</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>301.110661977869</v>
+        <v>315.566458621319</v>
       </c>
       <c r="C23" t="n">
-        <v>41.6217420936452</v>
+        <v>212.87722315897</v>
       </c>
       <c r="D23" t="n">
-        <v>-110.85851992307</v>
+        <v>177.642348575467</v>
       </c>
       <c r="E23" t="n">
-        <v>591.964329809084</v>
+        <v>514.902020807638</v>
       </c>
       <c r="F23" t="n">
-        <v>715.213832011329</v>
+        <v>706.973912475739</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>207</v>
       </c>
       <c r="I23" t="n">
-        <v>94.1106619778694</v>
+        <v>108.566458621319</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>434.028906514284</v>
+        <v>424.908380704712</v>
       </c>
       <c r="C24" t="n">
-        <v>160.175703696625</v>
+        <v>269.594669500292</v>
       </c>
       <c r="D24" t="n">
-        <v>-28.5298386491791</v>
+        <v>219.660001194491</v>
       </c>
       <c r="E24" t="n">
-        <v>730.233587313174</v>
+        <v>765.334745868513</v>
       </c>
       <c r="F24" t="n">
-        <v>893.189880548165</v>
+        <v>1140.19505355154</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>209</v>
       </c>
       <c r="I24" t="n">
-        <v>225.028906514284</v>
+        <v>215.908380704712</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>513.198467511616</v>
+        <v>539.247642785708</v>
       </c>
       <c r="C25" t="n">
-        <v>201.850689631308</v>
+        <v>323.468938722471</v>
       </c>
       <c r="D25" t="n">
-        <v>50.1588131064101</v>
+        <v>258.075506429115</v>
       </c>
       <c r="E25" t="n">
-        <v>825.576269311915</v>
+        <v>1071.07500072763</v>
       </c>
       <c r="F25" t="n">
-        <v>953.707822733071</v>
+        <v>1743.27592814272</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>327</v>
       </c>
       <c r="I25" t="n">
-        <v>186.198467511616</v>
+        <v>212.247642785708</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>419.360429256652</v>
+        <v>361.696154349007</v>
       </c>
       <c r="C26" t="n">
-        <v>149.59548752236</v>
+        <v>234.569744732069</v>
       </c>
       <c r="D26" t="n">
-        <v>-82.8558202950406</v>
+        <v>192.73889638437</v>
       </c>
       <c r="E26" t="n">
-        <v>719.778202862087</v>
+        <v>628.304676351642</v>
       </c>
       <c r="F26" t="n">
-        <v>895.469346530063</v>
+        <v>907.688340034735</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>347</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3604292566523</v>
+        <v>14.696154349007</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>266.849035007278</v>
+        <v>267.027146680637</v>
       </c>
       <c r="C27" t="n">
-        <v>-38.6369437177374</v>
+        <v>182.242364927479</v>
       </c>
       <c r="D27" t="n">
-        <v>-201.060661761427</v>
+        <v>152.787390272558</v>
       </c>
       <c r="E27" t="n">
-        <v>588.989724126004</v>
+        <v>427.968936942651</v>
       </c>
       <c r="F27" t="n">
-        <v>765.433617141396</v>
+        <v>579.42585242411</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>213</v>
       </c>
       <c r="I27" t="n">
-        <v>53.8490350072782</v>
+        <v>54.0271466806366</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>466.511210510298</v>
+        <v>434.486830036884</v>
       </c>
       <c r="C28" t="n">
-        <v>193.379833657724</v>
+        <v>268.895765826884</v>
       </c>
       <c r="D28" t="n">
-        <v>-22.428897867928</v>
+        <v>217.036838084844</v>
       </c>
       <c r="E28" t="n">
-        <v>764.484748780375</v>
+        <v>816.528298275198</v>
       </c>
       <c r="F28" t="n">
-        <v>933.112797044862</v>
+        <v>1262.82119120805</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>338</v>
       </c>
       <c r="I28" t="n">
-        <v>128.511210510298</v>
+        <v>96.4868300368839</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>359.014204445128</v>
+        <v>380.669009249926</v>
       </c>
       <c r="C29" t="n">
-        <v>46.8114325258824</v>
+        <v>240.980021956975</v>
       </c>
       <c r="D29" t="n">
-        <v>-112.263520446713</v>
+        <v>196.176077364353</v>
       </c>
       <c r="E29" t="n">
-        <v>665.543828767751</v>
+        <v>688.263003029109</v>
       </c>
       <c r="F29" t="n">
-        <v>865.52771684732</v>
+        <v>1028.7511678088</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>283</v>
       </c>
       <c r="I29" t="n">
-        <v>76.0142044451285</v>
+        <v>97.669009249926</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>353.10215815496</v>
+        <v>365.470119911463</v>
       </c>
       <c r="C30" t="n">
-        <v>24.8906606228427</v>
+        <v>232.21015919134</v>
       </c>
       <c r="D30" t="n">
-        <v>-132.653032874425</v>
+        <v>189.301950631999</v>
       </c>
       <c r="E30" t="n">
-        <v>674.959735622241</v>
+        <v>656.719625806997</v>
       </c>
       <c r="F30" t="n">
-        <v>872.352162615997</v>
+        <v>976.384426892448</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>235</v>
       </c>
       <c r="I30" t="n">
-        <v>118.10215815496</v>
+        <v>130.470119911463</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>320.270046481765</v>
+        <v>333.394236277129</v>
       </c>
       <c r="C31" t="n">
-        <v>-8.26927963793013</v>
+        <v>214.786939839046</v>
       </c>
       <c r="D31" t="n">
-        <v>-228.411793668105</v>
+        <v>176.032408101218</v>
       </c>
       <c r="E31" t="n">
-        <v>657.591151282254</v>
+        <v>585.459085242036</v>
       </c>
       <c r="F31" t="n">
-        <v>849.929541240106</v>
+        <v>853.53071720634</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>250</v>
       </c>
       <c r="I31" t="n">
-        <v>70.2700464817647</v>
+        <v>83.3942362771286</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>359.865491136719</v>
+        <v>346.897207554563</v>
       </c>
       <c r="C32" t="n">
-        <v>33.6453845708141</v>
+        <v>220.785667025846</v>
       </c>
       <c r="D32" t="n">
-        <v>-181.80054226722</v>
+        <v>180.105878383593</v>
       </c>
       <c r="E32" t="n">
-        <v>690.92193948663</v>
+        <v>621.569857420674</v>
       </c>
       <c r="F32" t="n">
-        <v>897.894478784438</v>
+        <v>921.858986082924</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>316</v>
       </c>
       <c r="I32" t="n">
-        <v>43.8654911367192</v>
+        <v>30.8972075545632</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>371.964891180481</v>
+        <v>393.824928184502</v>
       </c>
       <c r="C33" t="n">
-        <v>40.7081081457704</v>
+        <v>243.09987381458</v>
       </c>
       <c r="D33" t="n">
-        <v>-173.646994561618</v>
+        <v>196.02532308476</v>
       </c>
       <c r="E33" t="n">
-        <v>705.030093616566</v>
+        <v>743.454091643216</v>
       </c>
       <c r="F33" t="n">
-        <v>923.160080916706</v>
+        <v>1154.47981525526</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>267</v>
       </c>
       <c r="I33" t="n">
-        <v>104.964891180481</v>
+        <v>126.824928184502</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>361.582700907828</v>
+        <v>346.399349340062</v>
       </c>
       <c r="C34" t="n">
-        <v>41.2977773055376</v>
+        <v>218.672793818595</v>
       </c>
       <c r="D34" t="n">
-        <v>-151.886805440253</v>
+        <v>177.8266726233</v>
       </c>
       <c r="E34" t="n">
-        <v>707.572672214717</v>
+        <v>629.265176114666</v>
       </c>
       <c r="F34" t="n">
-        <v>896.791405674114</v>
+        <v>944.430454553739</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>140</v>
       </c>
       <c r="I34" t="n">
-        <v>221.582700907828</v>
+        <v>206.399349340062</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>304.620802361326</v>
+        <v>315.566458621319</v>
       </c>
       <c r="C35" t="n">
-        <v>-66.8765050865526</v>
+        <v>202.151173676512</v>
       </c>
       <c r="D35" t="n">
-        <v>-267.040366652708</v>
+        <v>165.315072309405</v>
       </c>
       <c r="E35" t="n">
-        <v>653.470448616295</v>
+        <v>559.366321981979</v>
       </c>
       <c r="F35" t="n">
-        <v>857.735274545463</v>
+        <v>821.987449692127</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>115</v>
       </c>
       <c r="I35" t="n">
-        <v>189.620802361326</v>
+        <v>200.566458621319</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>448.233538953294</v>
+        <v>424.908380704712</v>
       </c>
       <c r="C36" t="n">
-        <v>98.8795214841404</v>
+        <v>254.558171903738</v>
       </c>
       <c r="D36" t="n">
-        <v>-118.11055303363</v>
+        <v>203.001084200203</v>
       </c>
       <c r="E36" t="n">
-        <v>792.786473851254</v>
+        <v>845.918249632204</v>
       </c>
       <c r="F36" t="n">
-        <v>939.718777108763</v>
+        <v>1379.82597589381</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>97</v>
       </c>
       <c r="I36" t="n">
-        <v>351.233538953294</v>
+        <v>327.908380704712</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>517.287715206826</v>
+        <v>539.247642785708</v>
       </c>
       <c r="C37" t="n">
-        <v>180.28842817716</v>
+        <v>304.006525260934</v>
       </c>
       <c r="D37" t="n">
-        <v>-35.6600436672591</v>
+        <v>237.193283777685</v>
       </c>
       <c r="E37" t="n">
-        <v>876.514608533391</v>
+        <v>1204.57731664329</v>
       </c>
       <c r="F37" t="n">
-        <v>1071.84510054944</v>
+        <v>2206.01156821068</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>144</v>
       </c>
       <c r="I37" t="n">
-        <v>373.287715206826</v>
+        <v>395.247642785708</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>413.486575271812</v>
+        <v>361.696154349007</v>
       </c>
       <c r="C38" t="n">
-        <v>56.9298507146317</v>
+        <v>222.57925206227</v>
       </c>
       <c r="D38" t="n">
-        <v>-187.142722650445</v>
+        <v>179.271180521487</v>
       </c>
       <c r="E38" t="n">
-        <v>767.938092483168</v>
+        <v>686.489130409086</v>
       </c>
       <c r="F38" t="n">
-        <v>997.210156549984</v>
+        <v>1071.22742358644</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>240</v>
       </c>
       <c r="I38" t="n">
-        <v>173.486575271812</v>
+        <v>121.696154349007</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>271.668923737961</v>
+        <v>267.027146680637</v>
       </c>
       <c r="C39" t="n">
-        <v>-101.24416013935</v>
+        <v>174.069147489192</v>
       </c>
       <c r="D39" t="n">
-        <v>-373.793593245373</v>
+        <v>143.313761515272</v>
       </c>
       <c r="E39" t="n">
-        <v>639.115180533425</v>
+        <v>459.987056096317</v>
       </c>
       <c r="F39" t="n">
-        <v>880.954767099438</v>
+        <v>659.911662327699</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>324</v>
       </c>
       <c r="I39" t="n">
-        <v>-52.3310762620386</v>
+        <v>-56.9728533193634</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>472.621717236455</v>
+        <v>434.486830036884</v>
       </c>
       <c r="C40" t="n">
-        <v>97.713018919329</v>
+        <v>254.518596354243</v>
       </c>
       <c r="D40" t="n">
-        <v>-114.995033379209</v>
+        <v>201.316771747015</v>
       </c>
       <c r="E40" t="n">
-        <v>867.300358793791</v>
+        <v>901.520264423127</v>
       </c>
       <c r="F40" t="n">
-        <v>1122.18941630924</v>
+        <v>1530.64638255526</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>374</v>
       </c>
       <c r="I40" t="n">
-        <v>98.6217172364553</v>
+        <v>60.4868300368839</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>365.437373047618</v>
+        <v>380.669009249926</v>
       </c>
       <c r="C41" t="n">
-        <v>-28.4363881934328</v>
+        <v>228.869654784425</v>
       </c>
       <c r="D41" t="n">
-        <v>-285.764951211171</v>
+        <v>182.754759183142</v>
       </c>
       <c r="E41" t="n">
-        <v>760.535728255761</v>
+        <v>752.970345015952</v>
       </c>
       <c r="F41" t="n">
-        <v>989.781402607022</v>
+        <v>1220.73479450414</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>347</v>
       </c>
       <c r="I41" t="n">
-        <v>18.4373730476181</v>
+        <v>33.669009249926</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>350.622308667388</v>
+        <v>365.470119911463</v>
       </c>
       <c r="C42" t="n">
-        <v>-44.0156697433599</v>
+        <v>220.854335279253</v>
       </c>
       <c r="D42" t="n">
-        <v>-266.289073873692</v>
+        <v>176.685988962027</v>
       </c>
       <c r="E42" t="n">
-        <v>733.758155835717</v>
+        <v>716.31046331419</v>
       </c>
       <c r="F42" t="n">
-        <v>985.833643933994</v>
+        <v>1151.34504082198</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>314</v>
       </c>
       <c r="I42" t="n">
-        <v>36.6223086673884</v>
+        <v>51.4701199114633</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>335.020473251348</v>
+        <v>333.394236277129</v>
       </c>
       <c r="C43" t="n">
-        <v>-85.2014465568301</v>
+        <v>204.762153613317</v>
       </c>
       <c r="D43" t="n">
-        <v>-303.209312417307</v>
+        <v>164.800417176851</v>
       </c>
       <c r="E43" t="n">
-        <v>719.498489452693</v>
+        <v>634.942350602698</v>
       </c>
       <c r="F43" t="n">
-        <v>1006.39536047046</v>
+        <v>993.876984715559</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>252</v>
       </c>
       <c r="I43" t="n">
-        <v>83.0204732513481</v>
+        <v>81.3942362771286</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>377.94144887511</v>
+        <v>346.897207554563</v>
       </c>
       <c r="C44" t="n">
-        <v>-33.5753927532479</v>
+        <v>210.4399982027</v>
       </c>
       <c r="D44" t="n">
-        <v>-274.31345792743</v>
+        <v>168.594370195547</v>
       </c>
       <c r="E44" t="n">
-        <v>790.383632025831</v>
+        <v>675.241307834158</v>
       </c>
       <c r="F44" t="n">
-        <v>967.970350530108</v>
+        <v>1078.38824921577</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>342</v>
       </c>
       <c r="I44" t="n">
-        <v>35.9414488751098</v>
+        <v>4.89720755456324</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>387.510026326307</v>
+        <v>393.824928184502</v>
       </c>
       <c r="C45" t="n">
-        <v>-42.5274295755975</v>
+        <v>231.279345191407</v>
       </c>
       <c r="D45" t="n">
-        <v>-290.920716132296</v>
+        <v>183.101500157635</v>
       </c>
       <c r="E45" t="n">
-        <v>819.542157541709</v>
+        <v>813.323929141419</v>
       </c>
       <c r="F45" t="n">
-        <v>1059.88104185271</v>
+        <v>1374.52479037068</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>352</v>
       </c>
       <c r="I45" t="n">
-        <v>35.5100263263071</v>
+        <v>41.824928184502</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>387.80099844954</v>
+        <v>346.399349340062</v>
       </c>
       <c r="C46" t="n">
-        <v>-27.0400058909992</v>
+        <v>208.654366109257</v>
       </c>
       <c r="D46" t="n">
-        <v>-292.775056882703</v>
+        <v>166.727039946423</v>
       </c>
       <c r="E46" t="n">
-        <v>797.437685618573</v>
+        <v>682.8853581773</v>
       </c>
       <c r="F46" t="n">
-        <v>1029.18613564032</v>
+        <v>1103.61201029117</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,10 +1856,10 @@
         <v>367</v>
       </c>
       <c r="I46" t="n">
-        <v>20.8009984495403</v>
+        <v>-20.6006506599381</v>
       </c>
       <c r="J46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>326.912441912263</v>
+        <v>315.566458621319</v>
       </c>
       <c r="C47" t="n">
-        <v>-62.503450537722</v>
+        <v>193.309335272365</v>
       </c>
       <c r="D47" t="n">
-        <v>-392.711960798022</v>
+        <v>155.431907315994</v>
       </c>
       <c r="E47" t="n">
-        <v>768.021740298009</v>
+        <v>603.74076097897</v>
       </c>
       <c r="F47" t="n">
-        <v>1042.98540938427</v>
+        <v>948.98095572966</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>311</v>
       </c>
       <c r="I47" t="n">
-        <v>15.9124419122631</v>
+        <v>4.56645862131859</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>462.767476706939</v>
+        <v>424.908380704712</v>
       </c>
       <c r="C48" t="n">
-        <v>30.3115976982757</v>
+        <v>242.231238273038</v>
       </c>
       <c r="D48" t="n">
-        <v>-159.32404285731</v>
+        <v>189.740963845564</v>
       </c>
       <c r="E48" t="n">
-        <v>857.074348177302</v>
+        <v>928.623215096356</v>
       </c>
       <c r="F48" t="n">
-        <v>1203.55930001019</v>
+        <v>1661.91739295241</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>387</v>
       </c>
       <c r="I48" t="n">
-        <v>75.7674767069386</v>
+        <v>37.9083807047123</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>532.069644291878</v>
+        <v>539.247642785708</v>
       </c>
       <c r="C49" t="n">
-        <v>119.513057031937</v>
+        <v>288.117911629843</v>
       </c>
       <c r="D49" t="n">
-        <v>-221.021188667073</v>
+        <v>220.659635916613</v>
       </c>
       <c r="E49" t="n">
-        <v>949.284666131812</v>
+        <v>1345.5270801733</v>
       </c>
       <c r="F49" t="n">
-        <v>1201.97218241484</v>
+        <v>2791.89134820588</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>354</v>
       </c>
       <c r="I49" t="n">
-        <v>178.069644291878</v>
+        <v>185.247642785708</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Echinococcosis.xlsx
+++ b/outcome/appendix/forecast/Echinococcosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>361.696154349007</v>
+        <v>382.889249493209</v>
       </c>
       <c r="C2" t="n">
-        <v>270.616811911202</v>
+        <v>244.188735491457</v>
       </c>
       <c r="D2" t="n">
-        <v>235.68912749265</v>
+        <v>177.378218821832</v>
       </c>
       <c r="E2" t="n">
-        <v>507.63652817899</v>
+        <v>521.745231482663</v>
       </c>
       <c r="F2" t="n">
-        <v>623.462861322789</v>
+        <v>557.942953902297</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>286</v>
       </c>
       <c r="I2" t="n">
-        <v>75.696154349007</v>
+        <v>96.889249493209</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>267.027146680637</v>
+        <v>245.001841010715</v>
       </c>
       <c r="C3" t="n">
-        <v>206.143008314658</v>
+        <v>83.910374611903</v>
       </c>
       <c r="D3" t="n">
-        <v>181.987433832639</v>
+        <v>33.0600367387208</v>
       </c>
       <c r="E3" t="n">
-        <v>359.34989320448</v>
+        <v>397.046474656662</v>
       </c>
       <c r="F3" t="n">
-        <v>428.885564024523</v>
+        <v>466.067533100958</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>91</v>
       </c>
       <c r="I3" t="n">
-        <v>176.027146680637</v>
+        <v>154.001841010715</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>434.486830036884</v>
+        <v>456.949700598552</v>
       </c>
       <c r="C4" t="n">
-        <v>311.698090393412</v>
+        <v>318.464785952796</v>
       </c>
       <c r="D4" t="n">
-        <v>266.698093234302</v>
+        <v>193.739789305828</v>
       </c>
       <c r="E4" t="n">
-        <v>646.773733428427</v>
+        <v>600.805241664375</v>
       </c>
       <c r="F4" t="n">
-        <v>828.301060240618</v>
+        <v>673.004178577696</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>249</v>
       </c>
       <c r="I4" t="n">
-        <v>185.486830036884</v>
+        <v>207.949700598552</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>380.669009249926</v>
+        <v>318.023581470361</v>
       </c>
       <c r="C5" t="n">
-        <v>276.411443484051</v>
+        <v>163.497005811483</v>
       </c>
       <c r="D5" t="n">
-        <v>237.702233181261</v>
+        <v>73.5521818344523</v>
       </c>
       <c r="E5" t="n">
-        <v>556.976207073289</v>
+        <v>472.457751875834</v>
       </c>
       <c r="F5" t="n">
-        <v>704.45779772126</v>
+        <v>562.575969081643</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,10 +544,10 @@
         <v>362</v>
       </c>
       <c r="I5" t="n">
-        <v>18.669009249926</v>
+        <v>-43.9764185296395</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>365.470119911463</v>
+        <v>296.529011694033</v>
       </c>
       <c r="C6" t="n">
-        <v>265.062484502053</v>
+        <v>142.47811073445</v>
       </c>
       <c r="D6" t="n">
-        <v>227.830026157153</v>
+        <v>80.0566601113839</v>
       </c>
       <c r="E6" t="n">
-        <v>535.631815007598</v>
+        <v>455.358904202709</v>
       </c>
       <c r="F6" t="n">
-        <v>678.275473082915</v>
+        <v>507.064606342684</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>266</v>
       </c>
       <c r="I6" t="n">
-        <v>99.4701199114633</v>
+        <v>30.5290116940326</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>333.394236277129</v>
+        <v>266.944104731084</v>
       </c>
       <c r="C7" t="n">
-        <v>243.403282072513</v>
+        <v>104.455133897925</v>
       </c>
       <c r="D7" t="n">
-        <v>209.794757820851</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>484.080777881584</v>
+        <v>464.729398689973</v>
       </c>
       <c r="F7" t="n">
-        <v>608.909062939561</v>
+        <v>539.20311405919</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>264</v>
       </c>
       <c r="I7" t="n">
-        <v>69.3942362771286</v>
+        <v>2.94410473108354</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>346.897207554563</v>
+        <v>350.905889254345</v>
       </c>
       <c r="C8" t="n">
-        <v>250.146125971933</v>
+        <v>139.655902397032</v>
       </c>
       <c r="D8" t="n">
-        <v>214.491572130948</v>
+        <v>49.4294159547241</v>
       </c>
       <c r="E8" t="n">
-        <v>512.59695287508</v>
+        <v>558.44705976795</v>
       </c>
       <c r="F8" t="n">
-        <v>652.95928753366</v>
+        <v>693.354719483484</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>283</v>
       </c>
       <c r="I8" t="n">
-        <v>63.8972075545632</v>
+        <v>67.9058892543446</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>393.824928184502</v>
+        <v>322.601798492474</v>
       </c>
       <c r="C9" t="n">
-        <v>276.616702380538</v>
+        <v>121.752373147931</v>
       </c>
       <c r="D9" t="n">
-        <v>234.626114964759</v>
+        <v>1.15256250253915</v>
       </c>
       <c r="E9" t="n">
-        <v>604.556751182782</v>
+        <v>518.149833758187</v>
       </c>
       <c r="F9" t="n">
-        <v>792.028212032497</v>
+        <v>627.26879453016</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>283</v>
       </c>
       <c r="I9" t="n">
-        <v>110.824928184502</v>
+        <v>39.6017984924744</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>346.399349340062</v>
+        <v>327.572312479199</v>
       </c>
       <c r="C10" t="n">
-        <v>246.68665720457</v>
+        <v>106.291094214208</v>
       </c>
       <c r="D10" t="n">
-        <v>210.430938673115</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>521.138409171007</v>
+        <v>572.850540015189</v>
       </c>
       <c r="F10" t="n">
-        <v>672.601272016531</v>
+        <v>686.424338775829</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,10 +704,10 @@
         <v>336</v>
       </c>
       <c r="I10" t="n">
-        <v>10.3993493400619</v>
+        <v>-8.42768752080144</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>315.566458621319</v>
+        <v>251.982108085318</v>
       </c>
       <c r="C11" t="n">
-        <v>226.594328159568</v>
+        <v>27.7019585303224</v>
       </c>
       <c r="D11" t="n">
-        <v>193.95517361688</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>469.128132944395</v>
+        <v>497.514661714804</v>
       </c>
       <c r="F11" t="n">
-        <v>600.217031810095</v>
+        <v>573.156989297331</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>390</v>
       </c>
       <c r="I11" t="n">
-        <v>-74.4335413786814</v>
+        <v>-138.017891914682</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>424.908380704712</v>
+        <v>400.364924858021</v>
       </c>
       <c r="C12" t="n">
-        <v>288.92200607691</v>
+        <v>156.935087888835</v>
       </c>
       <c r="D12" t="n">
-        <v>241.865549457227</v>
+        <v>59.3631215619379</v>
       </c>
       <c r="E12" t="n">
-        <v>684.879685111142</v>
+        <v>649.061455988948</v>
       </c>
       <c r="F12" t="n">
-        <v>931.362101546168</v>
+        <v>782.635623926551</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,10 +768,10 @@
         <v>403</v>
       </c>
       <c r="I12" t="n">
-        <v>21.9083807047123</v>
+        <v>-2.63507514197909</v>
       </c>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>539.247642785708</v>
+        <v>432.091322947884</v>
       </c>
       <c r="C13" t="n">
-        <v>348.574605524672</v>
+        <v>177.654259627646</v>
       </c>
       <c r="D13" t="n">
-        <v>286.050918017692</v>
+        <v>0.462911805324797</v>
       </c>
       <c r="E13" t="n">
-        <v>941.749118017581</v>
+        <v>657.916528983608</v>
       </c>
       <c r="F13" t="n">
-        <v>1366.61155497181</v>
+        <v>797.274288281167</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>412</v>
       </c>
       <c r="I13" t="n">
-        <v>127.247642785708</v>
+        <v>20.091322947884</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>361.696154349007</v>
+        <v>375.76262820706</v>
       </c>
       <c r="C14" t="n">
-        <v>249.7292763287</v>
+        <v>120.084701900905</v>
       </c>
       <c r="D14" t="n">
-        <v>210.346467271685</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>569.603220600606</v>
+        <v>610.463980224273</v>
       </c>
       <c r="F14" t="n">
-        <v>760.806211963167</v>
+        <v>786.006583739882</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>378</v>
       </c>
       <c r="I14" t="n">
-        <v>-16.303845650993</v>
+        <v>-2.23737179294028</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>267.027146680637</v>
+        <v>211.04962323578</v>
       </c>
       <c r="C15" t="n">
-        <v>192.424348295824</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>164.951485310136</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>394.95023733199</v>
+        <v>427.635298011555</v>
       </c>
       <c r="F15" t="n">
-        <v>503.443628013064</v>
+        <v>594.112238059381</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,10 +864,10 @@
         <v>224</v>
       </c>
       <c r="I15" t="n">
-        <v>43.0271466806366</v>
+        <v>-12.95037676422</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>434.486830036884</v>
+        <v>428.707913019189</v>
       </c>
       <c r="C16" t="n">
-        <v>287.012342560211</v>
+        <v>152.512215297243</v>
       </c>
       <c r="D16" t="n">
-        <v>237.528383627457</v>
+        <v>34.7509492088495</v>
       </c>
       <c r="E16" t="n">
-        <v>732.696606411106</v>
+        <v>683.065341812147</v>
       </c>
       <c r="F16" t="n">
-        <v>1032.93875334815</v>
+        <v>896.446859014034</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,10 +896,10 @@
         <v>430</v>
       </c>
       <c r="I16" t="n">
-        <v>4.48683003688393</v>
+        <v>-1.29208698081106</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>380.669009249926</v>
+        <v>293.937882736733</v>
       </c>
       <c r="C17" t="n">
-        <v>256.102149010378</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>213.48340090927</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>623.737057696722</v>
+        <v>580.200845536836</v>
       </c>
       <c r="F17" t="n">
-        <v>859.251937676785</v>
+        <v>694.127929439471</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,10 +928,10 @@
         <v>304</v>
       </c>
       <c r="I17" t="n">
-        <v>76.669009249926</v>
+        <v>-10.0621172632672</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>365.470119911463</v>
+        <v>267.455624001418</v>
       </c>
       <c r="C18" t="n">
-        <v>246.310245722931</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>205.464835208387</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>597.197355138118</v>
+        <v>533.835152662083</v>
       </c>
       <c r="F18" t="n">
-        <v>820.911394443324</v>
+        <v>746.925344898575</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>265</v>
       </c>
       <c r="I18" t="n">
-        <v>100.470119911463</v>
+        <v>2.45562400141807</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>333.394236277129</v>
+        <v>252.250769270685</v>
       </c>
       <c r="C19" t="n">
-        <v>227.147459757763</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>190.303851315616</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>535.738030305361</v>
+        <v>536.402178582335</v>
       </c>
       <c r="F19" t="n">
-        <v>726.814119980688</v>
+        <v>736.739072134581</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>238</v>
       </c>
       <c r="I19" t="n">
-        <v>95.3942362771286</v>
+        <v>14.2507692706848</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>346.897207554563</v>
+        <v>323.01587540948</v>
       </c>
       <c r="C20" t="n">
-        <v>233.507736341667</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>194.690819016321</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>567.923592163739</v>
+        <v>654.736237118292</v>
       </c>
       <c r="F20" t="n">
-        <v>781.843323042175</v>
+        <v>814.522581819355</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>306</v>
       </c>
       <c r="I20" t="n">
-        <v>40.8972075545632</v>
+        <v>17.0158754094802</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>393.824928184502</v>
+        <v>293.818766192508</v>
       </c>
       <c r="C21" t="n">
-        <v>257.638202973404</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>212.410563761436</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>674.535188558079</v>
+        <v>641.813062954983</v>
       </c>
       <c r="F21" t="n">
-        <v>963.133957899475</v>
+        <v>831.176227073018</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>241</v>
       </c>
       <c r="I21" t="n">
-        <v>152.824928184502</v>
+        <v>52.8187661925085</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>346.399349340062</v>
+        <v>293.302343764928</v>
       </c>
       <c r="C22" t="n">
-        <v>230.901546851088</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>191.772800101882</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>575.853885253706</v>
+        <v>617.216694159821</v>
       </c>
       <c r="F22" t="n">
-        <v>802.495093460347</v>
+        <v>789.266343943569</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,10 +1088,10 @@
         <v>296</v>
       </c>
       <c r="I22" t="n">
-        <v>50.3993493400619</v>
+        <v>-2.69765623507203</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>315.566458621319</v>
+        <v>220.035593245955</v>
       </c>
       <c r="C23" t="n">
-        <v>212.87722315897</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>177.642348575467</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>514.902020807638</v>
+        <v>596.833409153575</v>
       </c>
       <c r="F23" t="n">
-        <v>706.973912475739</v>
+        <v>734.714029366758</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>207</v>
       </c>
       <c r="I23" t="n">
-        <v>108.566458621319</v>
+        <v>13.0355932459555</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>424.908380704712</v>
+        <v>382.422846559833</v>
       </c>
       <c r="C24" t="n">
-        <v>269.594669500292</v>
+        <v>16.6103718777222</v>
       </c>
       <c r="D24" t="n">
-        <v>219.660001194491</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>765.334745868513</v>
+        <v>720.474276495831</v>
       </c>
       <c r="F24" t="n">
-        <v>1140.19505355154</v>
+        <v>931.928663613979</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>209</v>
       </c>
       <c r="I24" t="n">
-        <v>215.908380704712</v>
+        <v>173.422846559833</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>539.247642785708</v>
+        <v>418.387151065481</v>
       </c>
       <c r="C25" t="n">
-        <v>323.468938722471</v>
+        <v>1.08433758834384</v>
       </c>
       <c r="D25" t="n">
-        <v>258.075506429115</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1071.07500072763</v>
+        <v>769.849921173439</v>
       </c>
       <c r="F25" t="n">
-        <v>1743.27592814272</v>
+        <v>1008.7830298898</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>327</v>
       </c>
       <c r="I25" t="n">
-        <v>212.247642785708</v>
+        <v>91.3871510654814</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>361.696154349007</v>
+        <v>341.229939518461</v>
       </c>
       <c r="C26" t="n">
-        <v>234.569744732069</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>192.73889638437</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>628.304676351642</v>
+        <v>778.124513427451</v>
       </c>
       <c r="F26" t="n">
-        <v>907.688340034735</v>
+        <v>897.028066135089</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,10 +1216,10 @@
         <v>347</v>
       </c>
       <c r="I26" t="n">
-        <v>14.696154349007</v>
+        <v>-5.77006048153936</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>267.027146680637</v>
+        <v>175.773836416104</v>
       </c>
       <c r="C27" t="n">
-        <v>182.242364927479</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>152.787390272558</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>427.968936942651</v>
+        <v>592.326753049713</v>
       </c>
       <c r="F27" t="n">
-        <v>579.42585242411</v>
+        <v>800.75753468512</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,10 +1248,10 @@
         <v>213</v>
       </c>
       <c r="I27" t="n">
-        <v>54.0271466806366</v>
+        <v>-37.2261635838964</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>434.486830036884</v>
+        <v>404.990492888002</v>
       </c>
       <c r="C28" t="n">
-        <v>268.895765826884</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>217.036838084844</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>816.528298275198</v>
+        <v>838.692266181858</v>
       </c>
       <c r="F28" t="n">
-        <v>1262.82119120805</v>
+        <v>1021.03058597461</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>338</v>
       </c>
       <c r="I28" t="n">
-        <v>96.4868300368839</v>
+        <v>66.9904928880024</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>380.669009249926</v>
+        <v>253.399581687305</v>
       </c>
       <c r="C29" t="n">
-        <v>240.980021956975</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>196.176077364353</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>688.263003029109</v>
+        <v>669.800902431898</v>
       </c>
       <c r="F29" t="n">
-        <v>1028.7511678088</v>
+        <v>885.186233726259</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,10 +1312,10 @@
         <v>283</v>
       </c>
       <c r="I29" t="n">
-        <v>97.669009249926</v>
+        <v>-29.6004183126951</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>365.470119911463</v>
+        <v>226.586891977541</v>
       </c>
       <c r="C30" t="n">
-        <v>232.21015919134</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>189.301950631999</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>656.719625806997</v>
+        <v>682.992729061698</v>
       </c>
       <c r="F30" t="n">
-        <v>976.384426892448</v>
+        <v>895.16737811912</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,10 +1344,10 @@
         <v>235</v>
       </c>
       <c r="I30" t="n">
-        <v>130.470119911463</v>
+        <v>-8.41310802245852</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>333.394236277129</v>
+        <v>211.217913314716</v>
       </c>
       <c r="C31" t="n">
-        <v>214.786939839046</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>176.032408101218</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>585.459085242036</v>
+        <v>641.576312101183</v>
       </c>
       <c r="F31" t="n">
-        <v>853.53071720634</v>
+        <v>925.922529016755</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,10 +1376,10 @@
         <v>250</v>
       </c>
       <c r="I31" t="n">
-        <v>83.3942362771286</v>
+        <v>-38.7820866852845</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>346.897207554563</v>
+        <v>268.146159788077</v>
       </c>
       <c r="C32" t="n">
-        <v>220.785667025846</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>180.105878383593</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>621.569857420674</v>
+        <v>728.922861629068</v>
       </c>
       <c r="F32" t="n">
-        <v>921.858986082924</v>
+        <v>957.32594619476</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,10 +1408,10 @@
         <v>316</v>
       </c>
       <c r="I32" t="n">
-        <v>30.8972075545632</v>
+        <v>-47.8538402119225</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>393.824928184502</v>
+        <v>255.944319197149</v>
       </c>
       <c r="C33" t="n">
-        <v>243.09987381458</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>196.02532308476</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>743.454091643216</v>
+        <v>743.301506340339</v>
       </c>
       <c r="F33" t="n">
-        <v>1154.47981525526</v>
+        <v>1101.03715730191</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,10 +1440,10 @@
         <v>267</v>
       </c>
       <c r="I33" t="n">
-        <v>126.824928184502</v>
+        <v>-11.0556808028512</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>346.399349340062</v>
+        <v>252.127005465818</v>
       </c>
       <c r="C34" t="n">
-        <v>218.672793818595</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>177.8266726233</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>629.265176114666</v>
+        <v>797.763720342496</v>
       </c>
       <c r="F34" t="n">
-        <v>944.430454553739</v>
+        <v>994.646956455757</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>140</v>
       </c>
       <c r="I34" t="n">
-        <v>206.399349340062</v>
+        <v>112.127005465818</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>315.566458621319</v>
+        <v>188.762868477399</v>
       </c>
       <c r="C35" t="n">
-        <v>202.151173676512</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>165.315072309405</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>559.366321981979</v>
+        <v>737.46697851188</v>
       </c>
       <c r="F35" t="n">
-        <v>821.987449692127</v>
+        <v>1001.22968702157</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>115</v>
       </c>
       <c r="I35" t="n">
-        <v>200.566458621319</v>
+        <v>73.7628684773987</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>424.908380704712</v>
+        <v>344.515055117237</v>
       </c>
       <c r="C36" t="n">
-        <v>254.558171903738</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>203.001084200203</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>845.918249632204</v>
+        <v>882.808286723532</v>
       </c>
       <c r="F36" t="n">
-        <v>1379.82597589381</v>
+        <v>1092.43477375974</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>97</v>
       </c>
       <c r="I36" t="n">
-        <v>327.908380704712</v>
+        <v>247.515055117237</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>539.247642785708</v>
+        <v>366.330473351619</v>
       </c>
       <c r="C37" t="n">
-        <v>304.006525260934</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>237.193283777685</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1204.57731664329</v>
+        <v>990.488530545527</v>
       </c>
       <c r="F37" t="n">
-        <v>2206.01156821068</v>
+        <v>1239.10082905459</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>144</v>
       </c>
       <c r="I37" t="n">
-        <v>395.247642785708</v>
+        <v>222.330473351619</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>361.696154349007</v>
+        <v>286.089599913177</v>
       </c>
       <c r="C38" t="n">
-        <v>222.57925206227</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>179.271180521487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>686.489130409086</v>
+        <v>878.821343243222</v>
       </c>
       <c r="F38" t="n">
-        <v>1071.22742358644</v>
+        <v>1166.0801125869</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>240</v>
       </c>
       <c r="I38" t="n">
-        <v>121.696154349007</v>
+        <v>46.0895999131773</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>267.027146680637</v>
+        <v>135.757927231758</v>
       </c>
       <c r="C39" t="n">
-        <v>174.069147489192</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>143.313761515272</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>459.987056096317</v>
+        <v>741.199253722124</v>
       </c>
       <c r="F39" t="n">
-        <v>659.911662327699</v>
+        <v>1085.32604012171</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>324</v>
       </c>
       <c r="I39" t="n">
-        <v>-56.9728533193634</v>
+        <v>-188.242072768242</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>434.486830036884</v>
+        <v>343.197607244795</v>
       </c>
       <c r="C40" t="n">
-        <v>254.518596354243</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>201.316771747015</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>901.520264423127</v>
+        <v>906.549666682345</v>
       </c>
       <c r="F40" t="n">
-        <v>1530.64638255526</v>
+        <v>1241.32987485621</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,10 +1664,10 @@
         <v>374</v>
       </c>
       <c r="I40" t="n">
-        <v>60.4868300368839</v>
+        <v>-30.8023927552051</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>380.669009249926</v>
+        <v>215.44199423862</v>
       </c>
       <c r="C41" t="n">
-        <v>228.869654784425</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>182.754759183142</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>752.970345015952</v>
+        <v>823.118688613011</v>
       </c>
       <c r="F41" t="n">
-        <v>1220.73479450414</v>
+        <v>1247.89626559213</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,10 +1696,10 @@
         <v>347</v>
       </c>
       <c r="I41" t="n">
-        <v>33.669009249926</v>
+        <v>-131.55800576138</v>
       </c>
       <c r="J41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>365.470119911463</v>
+        <v>194.618066777196</v>
       </c>
       <c r="C42" t="n">
-        <v>220.854335279253</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>176.685988962027</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>716.31046331419</v>
+        <v>798.477214037064</v>
       </c>
       <c r="F42" t="n">
-        <v>1151.34504082198</v>
+        <v>1242.86652279275</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,10 +1728,10 @@
         <v>314</v>
       </c>
       <c r="I42" t="n">
-        <v>51.4701199114633</v>
+        <v>-119.381933222804</v>
       </c>
       <c r="J42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>333.394236277129</v>
+        <v>190.061282858769</v>
       </c>
       <c r="C43" t="n">
-        <v>204.762153613317</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.800417176851</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>634.942350602698</v>
+        <v>789.876962656592</v>
       </c>
       <c r="F43" t="n">
-        <v>993.876984715559</v>
+        <v>1300.97557934676</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,10 +1760,10 @@
         <v>252</v>
       </c>
       <c r="I43" t="n">
-        <v>81.3942362771286</v>
+        <v>-61.9387171412315</v>
       </c>
       <c r="J43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>346.897207554563</v>
+        <v>262.15830820119</v>
       </c>
       <c r="C44" t="n">
-        <v>210.4399982027</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>168.594370195547</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>675.241307834158</v>
+        <v>922.557798129331</v>
       </c>
       <c r="F44" t="n">
-        <v>1078.38824921577</v>
+        <v>1239.66694664084</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,10 +1792,10 @@
         <v>342</v>
       </c>
       <c r="I44" t="n">
-        <v>4.89720755456324</v>
+        <v>-79.8416917988101</v>
       </c>
       <c r="J44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>393.824928184502</v>
+        <v>229.961616098956</v>
       </c>
       <c r="C45" t="n">
-        <v>231.279345191407</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>183.101500157635</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>813.323929141419</v>
+        <v>877.425709047295</v>
       </c>
       <c r="F45" t="n">
-        <v>1374.52479037068</v>
+        <v>1395.99310683852</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,10 +1824,10 @@
         <v>352</v>
       </c>
       <c r="I45" t="n">
-        <v>41.824928184502</v>
+        <v>-122.038383901044</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>346.399349340062</v>
+        <v>231.87603473811</v>
       </c>
       <c r="C46" t="n">
-        <v>208.654366109257</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>166.727039946423</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>682.8853581773</v>
+        <v>925.737939812443</v>
       </c>
       <c r="F46" t="n">
-        <v>1103.61201029117</v>
+        <v>1344.03872224717</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>367</v>
       </c>
       <c r="I46" t="n">
-        <v>-20.6006506599381</v>
+        <v>-135.12396526189</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>315.566458621319</v>
+        <v>150.773189142258</v>
       </c>
       <c r="C47" t="n">
-        <v>193.309335272365</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>155.431907315994</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>603.74076097897</v>
+        <v>922.986454224593</v>
       </c>
       <c r="F47" t="n">
-        <v>948.98095572966</v>
+        <v>1321.93387881808</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,10 +1888,10 @@
         <v>311</v>
       </c>
       <c r="I47" t="n">
-        <v>4.56645862131859</v>
+        <v>-160.226810857742</v>
       </c>
       <c r="J47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>424.908380704712</v>
+        <v>318.799243895369</v>
       </c>
       <c r="C48" t="n">
-        <v>242.231238273038</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>189.740963845564</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>928.623215096356</v>
+        <v>959.254248934286</v>
       </c>
       <c r="F48" t="n">
-        <v>1661.91739295241</v>
+        <v>1532.49297893897</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,10 +1920,10 @@
         <v>387</v>
       </c>
       <c r="I48" t="n">
-        <v>37.9083807047123</v>
+        <v>-68.2007561046307</v>
       </c>
       <c r="J48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>539.247642785708</v>
+        <v>340.649779382163</v>
       </c>
       <c r="C49" t="n">
-        <v>288.117911629843</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>220.659635916613</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1345.5270801733</v>
+        <v>1072.71823487836</v>
       </c>
       <c r="F49" t="n">
-        <v>2791.89134820588</v>
+        <v>1587.70853274358</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,10 +1952,10 @@
         <v>354</v>
       </c>
       <c r="I49" t="n">
-        <v>185.247642785708</v>
+        <v>-13.3502206178366</v>
       </c>
       <c r="J49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/forecast/Echinococcosis.xlsx
+++ b/outcome/appendix/forecast/Echinococcosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>382.889249493209</v>
+        <v>366.018115943136</v>
       </c>
       <c r="C2" t="n">
-        <v>244.188735491457</v>
+        <v>273.42985110135</v>
       </c>
       <c r="D2" t="n">
-        <v>177.378218821832</v>
+        <v>237.976423848529</v>
       </c>
       <c r="E2" t="n">
-        <v>521.745231482663</v>
+        <v>514.798448516157</v>
       </c>
       <c r="F2" t="n">
-        <v>557.942953902297</v>
+        <v>633.242971018268</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>286</v>
       </c>
       <c r="I2" t="n">
-        <v>96.889249493209</v>
+        <v>80.0181159431364</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>245.001841010715</v>
+        <v>266.350107549659</v>
       </c>
       <c r="C3" t="n">
-        <v>83.910374611903</v>
+        <v>205.677069971694</v>
       </c>
       <c r="D3" t="n">
-        <v>33.0600367387208</v>
+        <v>181.587011793108</v>
       </c>
       <c r="E3" t="n">
-        <v>397.046474656662</v>
+        <v>358.268404319935</v>
       </c>
       <c r="F3" t="n">
-        <v>466.067533100958</v>
+        <v>427.457771027827</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>91</v>
       </c>
       <c r="I3" t="n">
-        <v>154.001841010715</v>
+        <v>175.350107549659</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>456.949700598552</v>
+        <v>435.390641670577</v>
       </c>
       <c r="C4" t="n">
-        <v>318.464785952796</v>
+        <v>312.274002801108</v>
       </c>
       <c r="D4" t="n">
-        <v>193.739789305828</v>
+        <v>267.162921305119</v>
       </c>
       <c r="E4" t="n">
-        <v>600.805241664375</v>
+        <v>648.429221635729</v>
       </c>
       <c r="F4" t="n">
-        <v>673.004178577696</v>
+        <v>830.844442624965</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>249</v>
       </c>
       <c r="I4" t="n">
-        <v>207.949700598552</v>
+        <v>186.390641670577</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>318.023581470361</v>
+        <v>377.340167982259</v>
       </c>
       <c r="C5" t="n">
-        <v>163.497005811483</v>
+        <v>274.370231742785</v>
       </c>
       <c r="D5" t="n">
-        <v>73.5521818344523</v>
+        <v>236.075748781295</v>
       </c>
       <c r="E5" t="n">
-        <v>472.457751875834</v>
+        <v>551.066313110939</v>
       </c>
       <c r="F5" t="n">
-        <v>562.575969081643</v>
+        <v>696.117987052486</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,10 +544,10 @@
         <v>362</v>
       </c>
       <c r="I5" t="n">
-        <v>-43.9764185296395</v>
+        <v>15.3401679822589</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>296.529011694033</v>
+        <v>362.593466533505</v>
       </c>
       <c r="C6" t="n">
-        <v>142.47811073445</v>
+        <v>263.304128906557</v>
       </c>
       <c r="D6" t="n">
-        <v>80.0566601113839</v>
+        <v>226.428631759029</v>
       </c>
       <c r="E6" t="n">
-        <v>455.358904202709</v>
+        <v>530.495504801592</v>
       </c>
       <c r="F6" t="n">
-        <v>507.064606342684</v>
+        <v>671.003964937313</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>266</v>
       </c>
       <c r="I6" t="n">
-        <v>30.5290116940326</v>
+        <v>96.5934665335049</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>266.944104731084</v>
+        <v>325.793897800857</v>
       </c>
       <c r="C7" t="n">
-        <v>104.455133897925</v>
+        <v>238.659428056219</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>205.988027032043</v>
       </c>
       <c r="E7" t="n">
-        <v>464.729398689973</v>
+        <v>470.791875441606</v>
       </c>
       <c r="F7" t="n">
-        <v>539.20311405919</v>
+        <v>590.223436503559</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>264</v>
       </c>
       <c r="I7" t="n">
-        <v>2.94410473108354</v>
+        <v>61.7938978008575</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>350.905889254345</v>
+        <v>344.185521674322</v>
       </c>
       <c r="C8" t="n">
-        <v>139.655902397032</v>
+        <v>248.502856073263</v>
       </c>
       <c r="D8" t="n">
-        <v>49.4294159547241</v>
+        <v>213.183937675608</v>
       </c>
       <c r="E8" t="n">
-        <v>558.44705976795</v>
+        <v>507.679347614916</v>
       </c>
       <c r="F8" t="n">
-        <v>693.354719483484</v>
+        <v>645.91928967161</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>283</v>
       </c>
       <c r="I8" t="n">
-        <v>67.9058892543446</v>
+        <v>61.1855216743224</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>322.601798492474</v>
+        <v>385.361179355287</v>
       </c>
       <c r="C9" t="n">
-        <v>121.752373147931</v>
+        <v>271.644654787599</v>
       </c>
       <c r="D9" t="n">
-        <v>1.15256250253915</v>
+        <v>230.739828539034</v>
       </c>
       <c r="E9" t="n">
-        <v>518.149833758187</v>
+        <v>588.501545268076</v>
       </c>
       <c r="F9" t="n">
-        <v>627.26879453016</v>
+        <v>768.133646469659</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>283</v>
       </c>
       <c r="I9" t="n">
-        <v>39.6017984924744</v>
+        <v>102.361179355287</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>327.572312479199</v>
+        <v>342.695909591077</v>
       </c>
       <c r="C10" t="n">
-        <v>106.291094214208</v>
+        <v>244.477578870896</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>208.686395730649</v>
       </c>
       <c r="E10" t="n">
-        <v>572.850540015189</v>
+        <v>514.258612046936</v>
       </c>
       <c r="F10" t="n">
-        <v>686.424338775829</v>
+        <v>662.556796944575</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,10 +704,10 @@
         <v>336</v>
       </c>
       <c r="I10" t="n">
-        <v>-8.42768752080144</v>
+        <v>6.69590959107722</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>251.982108085318</v>
+        <v>318.918873052258</v>
       </c>
       <c r="C11" t="n">
-        <v>27.7019585303224</v>
+        <v>228.650884585883</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>195.577550688735</v>
       </c>
       <c r="E11" t="n">
-        <v>497.514661714804</v>
+        <v>475.13051899091</v>
       </c>
       <c r="F11" t="n">
-        <v>573.156989297331</v>
+        <v>608.899206264982</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>390</v>
       </c>
       <c r="I11" t="n">
-        <v>-138.017891914682</v>
+        <v>-71.0811269477425</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>400.364924858021</v>
+        <v>432.404296922976</v>
       </c>
       <c r="C12" t="n">
-        <v>156.935087888835</v>
+        <v>293.162588094531</v>
       </c>
       <c r="D12" t="n">
-        <v>59.3631215619379</v>
+        <v>245.123740497224</v>
       </c>
       <c r="E12" t="n">
-        <v>649.061455988948</v>
+        <v>700.240094681233</v>
       </c>
       <c r="F12" t="n">
-        <v>782.635623926551</v>
+        <v>956.015956524981</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,10 +768,10 @@
         <v>403</v>
       </c>
       <c r="I12" t="n">
-        <v>-2.63507514197909</v>
+        <v>29.4042969229765</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>432.091322947884</v>
+        <v>540.20108595216</v>
       </c>
       <c r="C13" t="n">
-        <v>177.654259627646</v>
+        <v>349.112744665087</v>
       </c>
       <c r="D13" t="n">
-        <v>0.462911805324797</v>
+        <v>286.473044863859</v>
       </c>
       <c r="E13" t="n">
-        <v>657.916528983608</v>
+        <v>944.232800849205</v>
       </c>
       <c r="F13" t="n">
-        <v>797.274288281167</v>
+        <v>1371.90354825833</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>412</v>
       </c>
       <c r="I13" t="n">
-        <v>20.091322947884</v>
+        <v>128.20108595216</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>375.76262820706</v>
+        <v>366.018115943136</v>
       </c>
       <c r="C14" t="n">
-        <v>120.084701900905</v>
+        <v>252.240586893127</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>212.289007685092</v>
       </c>
       <c r="E14" t="n">
-        <v>610.463980224273</v>
+        <v>578.070659448524</v>
       </c>
       <c r="F14" t="n">
-        <v>786.006583739882</v>
+        <v>773.962630865267</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>378</v>
       </c>
       <c r="I14" t="n">
-        <v>-2.23737179294028</v>
+        <v>-11.9818840568636</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>211.04962323578</v>
+        <v>266.350107549659</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>192.007109920816</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>164.601320893769</v>
       </c>
       <c r="E15" t="n">
-        <v>427.635298011555</v>
+        <v>393.665664875536</v>
       </c>
       <c r="F15" t="n">
-        <v>594.112238059381</v>
+        <v>501.556330874818</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,10 +864,10 @@
         <v>224</v>
       </c>
       <c r="I15" t="n">
-        <v>-12.95037676422</v>
+        <v>42.3501075496587</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>428.707913019189</v>
+        <v>435.390641670577</v>
       </c>
       <c r="C16" t="n">
-        <v>152.512215297243</v>
+        <v>287.54418844356</v>
       </c>
       <c r="D16" t="n">
-        <v>34.7509492088495</v>
+        <v>237.940293084026</v>
       </c>
       <c r="E16" t="n">
-        <v>683.065341812147</v>
+        <v>734.672951358995</v>
       </c>
       <c r="F16" t="n">
-        <v>896.446859014034</v>
+        <v>1036.60482374249</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,10 +896,10 @@
         <v>430</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.29208698081106</v>
+        <v>5.3906416705766</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>293.937882736733</v>
+        <v>377.340167982259</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>254.296778723129</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>212.109972938224</v>
       </c>
       <c r="E17" t="n">
-        <v>580.200845536836</v>
+        <v>616.702825634103</v>
       </c>
       <c r="F17" t="n">
-        <v>694.127929439471</v>
+        <v>848.046532829312</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,10 +928,10 @@
         <v>304</v>
       </c>
       <c r="I17" t="n">
-        <v>-10.0621172632672</v>
+        <v>73.3401679822589</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>267.455624001418</v>
+        <v>362.593466533505</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>244.747999736367</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>204.272632896673</v>
       </c>
       <c r="E18" t="n">
-        <v>533.835152662083</v>
+        <v>591.117832384041</v>
       </c>
       <c r="F18" t="n">
-        <v>746.925344898575</v>
+        <v>811.240344252911</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>265</v>
       </c>
       <c r="I18" t="n">
-        <v>2.45562400141807</v>
+        <v>97.5934665335049</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>252.250769270685</v>
+        <v>325.793897800857</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>222.87627268106</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>187.014267147449</v>
       </c>
       <c r="E19" t="n">
-        <v>536.402178582335</v>
+        <v>520.249314747392</v>
       </c>
       <c r="F19" t="n">
-        <v>736.739072134581</v>
+        <v>702.476186927708</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>238</v>
       </c>
       <c r="I19" t="n">
-        <v>14.2507692706848</v>
+        <v>87.7938978008575</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>323.01587540948</v>
+        <v>344.185521674322</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>232.035281838328</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>193.563806412072</v>
       </c>
       <c r="E20" t="n">
-        <v>654.736237118292</v>
+        <v>562.15632171853</v>
       </c>
       <c r="F20" t="n">
-        <v>814.522581819355</v>
+        <v>772.617978006476</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>306</v>
       </c>
       <c r="I20" t="n">
-        <v>17.0158754094802</v>
+        <v>38.1855216743224</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>293.818766192508</v>
+        <v>385.361179355287</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>253.179446039114</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>209.068664808154</v>
       </c>
       <c r="E21" t="n">
-        <v>641.813062954983</v>
+        <v>655.61658758145</v>
       </c>
       <c r="F21" t="n">
-        <v>831.176227073018</v>
+        <v>931.254395930278</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>241</v>
       </c>
       <c r="I21" t="n">
-        <v>52.8187661925085</v>
+        <v>144.361179355287</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>293.302343764928</v>
+        <v>342.695909591077</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>228.909138659496</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>190.256947850685</v>
       </c>
       <c r="E22" t="n">
-        <v>617.216694159821</v>
+        <v>567.835735343827</v>
       </c>
       <c r="F22" t="n">
-        <v>789.266343943569</v>
+        <v>789.422706634515</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,10 +1088,10 @@
         <v>296</v>
       </c>
       <c r="I22" t="n">
-        <v>-2.69765623507203</v>
+        <v>46.6959095910772</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>220.035593245955</v>
+        <v>318.918873052258</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>214.75605818567</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>179.063719719687</v>
       </c>
       <c r="E23" t="n">
-        <v>596.833409153575</v>
+        <v>521.769353675766</v>
       </c>
       <c r="F23" t="n">
-        <v>734.714029366758</v>
+        <v>718.048331648945</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>207</v>
       </c>
       <c r="I23" t="n">
-        <v>13.0355932459555</v>
+        <v>111.918873052258</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>382.422846559833</v>
+        <v>432.404296922976</v>
       </c>
       <c r="C24" t="n">
-        <v>16.6103718777222</v>
+        <v>273.432651583505</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>222.491665384499</v>
       </c>
       <c r="E24" t="n">
-        <v>720.474276495831</v>
+        <v>783.492054038715</v>
       </c>
       <c r="F24" t="n">
-        <v>931.928663613979</v>
+        <v>1173.87825707221</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>209</v>
       </c>
       <c r="I24" t="n">
-        <v>173.422846559833</v>
+        <v>223.404296922976</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>418.387151065481</v>
+        <v>540.20108595216</v>
       </c>
       <c r="C25" t="n">
-        <v>1.08433758834384</v>
+        <v>323.972462954711</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>258.45825456598</v>
       </c>
       <c r="E25" t="n">
-        <v>769.849921173439</v>
+        <v>1074.20604713418</v>
       </c>
       <c r="F25" t="n">
-        <v>1008.7830298898</v>
+        <v>1751.88528306361</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>327</v>
       </c>
       <c r="I25" t="n">
-        <v>91.3871510654814</v>
+        <v>213.20108595216</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>341.229939518461</v>
+        <v>366.018115943136</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>236.865369723478</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>194.446137506587</v>
       </c>
       <c r="E26" t="n">
-        <v>778.124513427451</v>
+        <v>638.09224701902</v>
       </c>
       <c r="F26" t="n">
-        <v>897.028066135089</v>
+        <v>924.905315665578</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,10 +1216,10 @@
         <v>347</v>
       </c>
       <c r="I26" t="n">
-        <v>-5.77006048153936</v>
+        <v>19.0181159431364</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>175.773836416104</v>
+        <v>266.350107549659</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>181.856868371947</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>152.465885370291</v>
       </c>
       <c r="E27" t="n">
-        <v>592.326753049713</v>
+        <v>426.490268399381</v>
       </c>
       <c r="F27" t="n">
-        <v>800.75753468512</v>
+        <v>577.050251236733</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,10 +1248,10 @@
         <v>213</v>
       </c>
       <c r="I27" t="n">
-        <v>-37.2261635838964</v>
+        <v>53.3501075496587</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>404.990492888002</v>
+        <v>435.390641670577</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>269.392211161404</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>217.40598625953</v>
       </c>
       <c r="E28" t="n">
-        <v>838.692266181858</v>
+        <v>818.868276112828</v>
       </c>
       <c r="F28" t="n">
-        <v>1021.03058597461</v>
+        <v>1268.10581965211</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>338</v>
       </c>
       <c r="I28" t="n">
-        <v>66.9904928880024</v>
+        <v>97.3906416705766</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>253.399581687305</v>
+        <v>377.340167982259</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>239.340646661094</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>194.968525835687</v>
       </c>
       <c r="E29" t="n">
-        <v>669.800902431898</v>
+        <v>680.10118456579</v>
       </c>
       <c r="F29" t="n">
-        <v>885.186233726259</v>
+        <v>1014.21603120736</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,10 +1312,10 @@
         <v>283</v>
       </c>
       <c r="I29" t="n">
-        <v>-29.6004183126951</v>
+        <v>94.3401679822589</v>
       </c>
       <c r="J29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>226.586891977541</v>
+        <v>362.593466533505</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>230.787136403677</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>188.248039623783</v>
       </c>
       <c r="E30" t="n">
-        <v>682.992729061698</v>
+        <v>649.695286338947</v>
       </c>
       <c r="F30" t="n">
-        <v>895.16737811912</v>
+        <v>963.947437334293</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,10 +1344,10 @@
         <v>235</v>
       </c>
       <c r="I30" t="n">
-        <v>-8.41310802245852</v>
+        <v>127.593466533505</v>
       </c>
       <c r="J30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>211.217913314716</v>
+        <v>325.793897800857</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>210.861245943923</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>173.100134614088</v>
       </c>
       <c r="E31" t="n">
-        <v>641.576312101183</v>
+        <v>567.76198107559</v>
       </c>
       <c r="F31" t="n">
-        <v>925.922529016755</v>
+        <v>822.662125327537</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,10 +1376,10 @@
         <v>250</v>
       </c>
       <c r="I31" t="n">
-        <v>-38.7820866852845</v>
+        <v>75.7938978008575</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>268.146159788077</v>
+        <v>344.185521674322</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>219.436786375649</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>179.100885074007</v>
       </c>
       <c r="E32" t="n">
-        <v>728.922861629068</v>
+        <v>614.949252480347</v>
       </c>
       <c r="F32" t="n">
-        <v>957.32594619476</v>
+        <v>910.12428696378</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,10 +1408,10 @@
         <v>316</v>
       </c>
       <c r="I32" t="n">
-        <v>-47.8538402119225</v>
+        <v>28.1855216743224</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>255.944319197149</v>
+        <v>385.361179355287</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>239.019005980832</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>193.062119528304</v>
       </c>
       <c r="E33" t="n">
-        <v>743.301506340339</v>
+        <v>721.589414918977</v>
       </c>
       <c r="F33" t="n">
-        <v>1101.03715730191</v>
+        <v>1112.96068584736</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,10 +1440,10 @@
         <v>267</v>
       </c>
       <c r="I33" t="n">
-        <v>-11.0556808028512</v>
+        <v>118.361179355287</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>252.127005465818</v>
+        <v>342.695909591077</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>216.840535183038</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>176.469859062532</v>
       </c>
       <c r="E34" t="n">
-        <v>797.763720342496</v>
+        <v>620.093400602811</v>
       </c>
       <c r="F34" t="n">
-        <v>994.646956455757</v>
+        <v>927.838752989597</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>140</v>
       </c>
       <c r="I34" t="n">
-        <v>112.127005465818</v>
+        <v>202.695909591077</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>188.762868477399</v>
+        <v>318.918873052258</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>203.892397130054</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>166.585992058745</v>
       </c>
       <c r="E35" t="n">
-        <v>737.46697851188</v>
+        <v>567.11834919276</v>
       </c>
       <c r="F35" t="n">
-        <v>1001.22968702157</v>
+        <v>835.902264349347</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>115</v>
       </c>
       <c r="I35" t="n">
-        <v>73.7628684773987</v>
+        <v>203.918873052258</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>344.515055117237</v>
+        <v>432.404296922976</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>258.089934046452</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>205.521389298914</v>
       </c>
       <c r="E36" t="n">
-        <v>882.808286723532</v>
+        <v>867.060181515362</v>
       </c>
       <c r="F36" t="n">
-        <v>1092.43477375974</v>
+        <v>1425.20760278625</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>97</v>
       </c>
       <c r="I36" t="n">
-        <v>247.515055117237</v>
+        <v>335.404296922976</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>366.330473351619</v>
+        <v>540.20108595216</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>304.481379196251</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>237.542597194573</v>
       </c>
       <c r="E37" t="n">
-        <v>990.488530545527</v>
+        <v>1208.49495660863</v>
       </c>
       <c r="F37" t="n">
-        <v>1239.10082905459</v>
+        <v>2219.97099682563</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>144</v>
       </c>
       <c r="I37" t="n">
-        <v>222.330473351619</v>
+        <v>396.20108595216</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>286.089599913177</v>
+        <v>366.018115943136</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>224.706676845821</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>180.801111129781</v>
       </c>
       <c r="E38" t="n">
-        <v>878.821343243222</v>
+        <v>697.661476686423</v>
       </c>
       <c r="F38" t="n">
-        <v>1166.0801125869</v>
+        <v>1093.48421219651</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>240</v>
       </c>
       <c r="I38" t="n">
-        <v>46.0895999131773</v>
+        <v>126.018115943136</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>135.757927231758</v>
+        <v>266.350107549659</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>173.706579346929</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>143.010409059064</v>
       </c>
       <c r="E39" t="n">
-        <v>741.199253722124</v>
+        <v>458.314754168664</v>
       </c>
       <c r="F39" t="n">
-        <v>1085.32604012171</v>
+        <v>657.002217977372</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>324</v>
       </c>
       <c r="I39" t="n">
-        <v>-188.242072768242</v>
+        <v>-57.6498924503413</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>343.197607244795</v>
+        <v>435.390641670577</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>254.985345059573</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>201.649935137716</v>
       </c>
       <c r="E40" t="n">
-        <v>906.549666682345</v>
+        <v>904.278598851925</v>
       </c>
       <c r="F40" t="n">
-        <v>1241.32987485621</v>
+        <v>1538.28891727384</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,10 +1664,10 @@
         <v>374</v>
       </c>
       <c r="I40" t="n">
-        <v>-30.8023927552051</v>
+        <v>61.3906416705766</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>215.44199423862</v>
+        <v>377.340167982259</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>227.357345372229</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>181.666947279216</v>
       </c>
       <c r="E41" t="n">
-        <v>823.118688613011</v>
+        <v>743.640031506738</v>
       </c>
       <c r="F41" t="n">
-        <v>1247.89626559213</v>
+        <v>1202.22883691781</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,10 +1696,10 @@
         <v>347</v>
       </c>
       <c r="I41" t="n">
-        <v>-131.55800576138</v>
+        <v>30.3401679822589</v>
       </c>
       <c r="J41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>194.618066777196</v>
+        <v>362.593466533505</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>219.538341474957</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>175.732243046715</v>
       </c>
       <c r="E42" t="n">
-        <v>798.477214037064</v>
+        <v>708.309916377131</v>
       </c>
       <c r="F42" t="n">
-        <v>1242.86652279275</v>
+        <v>1135.6419459118</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,10 +1728,10 @@
         <v>314</v>
       </c>
       <c r="I42" t="n">
-        <v>-119.381933222804</v>
+        <v>48.5934665335049</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>190.061282858769</v>
+        <v>325.793897800857</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>201.107734475029</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>162.136177013859</v>
       </c>
       <c r="E43" t="n">
-        <v>789.876962656592</v>
+        <v>614.963191835694</v>
       </c>
       <c r="F43" t="n">
-        <v>1300.97557934676</v>
+        <v>955.28120930239</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,10 +1760,10 @@
         <v>252</v>
       </c>
       <c r="I43" t="n">
-        <v>-61.9387171412315</v>
+        <v>73.7938978008575</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>262.15830820119</v>
+        <v>344.185521674322</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>209.187129214903</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>167.678840018081</v>
       </c>
       <c r="E44" t="n">
-        <v>922.557798129331</v>
+        <v>667.739780947544</v>
       </c>
       <c r="F44" t="n">
-        <v>1239.66694664084</v>
+        <v>1063.70986895066</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,10 +1792,10 @@
         <v>342</v>
       </c>
       <c r="I44" t="n">
-        <v>-79.8416917988101</v>
+        <v>2.18552167432239</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>229.961616098956</v>
+        <v>385.361179355287</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>227.495756990011</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>180.422718186694</v>
       </c>
       <c r="E45" t="n">
-        <v>877.425709047295</v>
+        <v>788.352473099798</v>
       </c>
       <c r="F45" t="n">
-        <v>1395.99310683852</v>
+        <v>1321.10492494284</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,10 +1824,10 @@
         <v>352</v>
       </c>
       <c r="I45" t="n">
-        <v>-122.038383901044</v>
+        <v>33.3611793552871</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>231.87603473811</v>
+        <v>342.695909591077</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>206.948264970477</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>165.489243011095</v>
       </c>
       <c r="E46" t="n">
-        <v>925.737939812443</v>
+        <v>672.515853164819</v>
       </c>
       <c r="F46" t="n">
-        <v>1344.03872224717</v>
+        <v>1082.84785739031</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>367</v>
       </c>
       <c r="I46" t="n">
-        <v>-135.12396526189</v>
+        <v>-24.3040904089228</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>150.773189142258</v>
+        <v>318.918873052258</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>194.938138778047</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>156.58314988522</v>
       </c>
       <c r="E47" t="n">
-        <v>922.986454224593</v>
+        <v>612.41811693039</v>
       </c>
       <c r="F47" t="n">
-        <v>1321.93387881808</v>
+        <v>966.337516424475</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,10 +1888,10 @@
         <v>311</v>
       </c>
       <c r="I47" t="n">
-        <v>-160.226810857742</v>
+        <v>7.91887305225754</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>318.799243895369</v>
+        <v>432.404296922976</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>245.516752816936</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>192.018877588388</v>
       </c>
       <c r="E48" t="n">
-        <v>959.254248934286</v>
+        <v>953.012388472649</v>
       </c>
       <c r="F48" t="n">
-        <v>1532.49297893897</v>
+        <v>1722.79083515236</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,10 +1920,10 @@
         <v>387</v>
       </c>
       <c r="I48" t="n">
-        <v>-68.2007561046307</v>
+        <v>45.4042969229765</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>340.649779382163</v>
+        <v>540.20108595216</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>288.568188252337</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>220.979764690196</v>
       </c>
       <c r="E49" t="n">
-        <v>1072.71823487836</v>
+        <v>1350.40450924599</v>
       </c>
       <c r="F49" t="n">
-        <v>1587.70853274358</v>
+        <v>2814.56654617542</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,10 +1952,10 @@
         <v>354</v>
       </c>
       <c r="I49" t="n">
-        <v>-13.3502206178366</v>
+        <v>186.20108595216</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/forecast/Echinococcosis.xlsx
+++ b/outcome/appendix/forecast/Echinococcosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>366.018115943136</v>
+        <v>382.889249493206</v>
       </c>
       <c r="C2" t="n">
-        <v>273.42985110135</v>
+        <v>244.188735491452</v>
       </c>
       <c r="D2" t="n">
-        <v>237.976423848529</v>
+        <v>177.378218821828</v>
       </c>
       <c r="E2" t="n">
-        <v>514.798448516157</v>
+        <v>521.745231482685</v>
       </c>
       <c r="F2" t="n">
-        <v>633.242971018268</v>
+        <v>557.942953902252</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>286</v>
       </c>
       <c r="I2" t="n">
-        <v>80.0181159431364</v>
+        <v>96.8892494932057</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>266.350107549659</v>
+        <v>245.001841010711</v>
       </c>
       <c r="C3" t="n">
-        <v>205.677069971694</v>
+        <v>83.9103746119119</v>
       </c>
       <c r="D3" t="n">
-        <v>181.587011793108</v>
+        <v>33.0600367387387</v>
       </c>
       <c r="E3" t="n">
-        <v>358.268404319935</v>
+        <v>397.046474656676</v>
       </c>
       <c r="F3" t="n">
-        <v>427.457771027827</v>
+        <v>466.067533100952</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>91</v>
       </c>
       <c r="I3" t="n">
-        <v>175.350107549659</v>
+        <v>154.001841010711</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>435.390641670577</v>
+        <v>456.949700598548</v>
       </c>
       <c r="C4" t="n">
-        <v>312.274002801108</v>
+        <v>318.464785952801</v>
       </c>
       <c r="D4" t="n">
-        <v>267.162921305119</v>
+        <v>193.739789305837</v>
       </c>
       <c r="E4" t="n">
-        <v>648.429221635729</v>
+        <v>600.805241664409</v>
       </c>
       <c r="F4" t="n">
-        <v>830.844442624965</v>
+        <v>673.004178577706</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>249</v>
       </c>
       <c r="I4" t="n">
-        <v>186.390641670577</v>
+        <v>207.949700598548</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>377.340167982259</v>
+        <v>318.023581470357</v>
       </c>
       <c r="C5" t="n">
-        <v>274.370231742785</v>
+        <v>163.497005811483</v>
       </c>
       <c r="D5" t="n">
-        <v>236.075748781295</v>
+        <v>73.552181834471</v>
       </c>
       <c r="E5" t="n">
-        <v>551.066313110939</v>
+        <v>472.457751875881</v>
       </c>
       <c r="F5" t="n">
-        <v>696.117987052486</v>
+        <v>562.575969081606</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,10 +544,10 @@
         <v>362</v>
       </c>
       <c r="I5" t="n">
-        <v>15.3401679822589</v>
+        <v>-43.9764185296426</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>362.593466533505</v>
+        <v>296.529011694029</v>
       </c>
       <c r="C6" t="n">
-        <v>263.304128906557</v>
+        <v>142.478110734464</v>
       </c>
       <c r="D6" t="n">
-        <v>226.428631759029</v>
+        <v>80.0566601113789</v>
       </c>
       <c r="E6" t="n">
-        <v>530.495504801592</v>
+        <v>455.358904202657</v>
       </c>
       <c r="F6" t="n">
-        <v>671.003964937313</v>
+        <v>507.064606342672</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>266</v>
       </c>
       <c r="I6" t="n">
-        <v>96.5934665335049</v>
+        <v>30.5290116940292</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>325.793897800857</v>
+        <v>266.94410473108</v>
       </c>
       <c r="C7" t="n">
-        <v>238.659428056219</v>
+        <v>104.455133897924</v>
       </c>
       <c r="D7" t="n">
-        <v>205.988027032043</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>470.791875441606</v>
+        <v>464.729398689998</v>
       </c>
       <c r="F7" t="n">
-        <v>590.223436503559</v>
+        <v>539.203114059136</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>264</v>
       </c>
       <c r="I7" t="n">
-        <v>61.7938978008575</v>
+        <v>2.94410473108036</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>344.185521674322</v>
+        <v>350.905889254341</v>
       </c>
       <c r="C8" t="n">
-        <v>248.502856073263</v>
+        <v>139.655902396978</v>
       </c>
       <c r="D8" t="n">
-        <v>213.183937675608</v>
+        <v>49.4294159547264</v>
       </c>
       <c r="E8" t="n">
-        <v>507.679347614916</v>
+        <v>558.447059767963</v>
       </c>
       <c r="F8" t="n">
-        <v>645.91928967161</v>
+        <v>693.354719483434</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>283</v>
       </c>
       <c r="I8" t="n">
-        <v>61.1855216743224</v>
+        <v>67.9058892543409</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>385.361179355287</v>
+        <v>322.601798492471</v>
       </c>
       <c r="C9" t="n">
-        <v>271.644654787599</v>
+        <v>121.752373148023</v>
       </c>
       <c r="D9" t="n">
-        <v>230.739828539034</v>
+        <v>1.15256250252763</v>
       </c>
       <c r="E9" t="n">
-        <v>588.501545268076</v>
+        <v>518.149833758211</v>
       </c>
       <c r="F9" t="n">
-        <v>768.133646469659</v>
+        <v>627.268794530149</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>283</v>
       </c>
       <c r="I9" t="n">
-        <v>102.361179355287</v>
+        <v>39.6017984924712</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>342.695909591077</v>
+        <v>327.572312479195</v>
       </c>
       <c r="C10" t="n">
-        <v>244.477578870896</v>
+        <v>106.29109421422</v>
       </c>
       <c r="D10" t="n">
-        <v>208.686395730649</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>514.258612046936</v>
+        <v>572.850540015177</v>
       </c>
       <c r="F10" t="n">
-        <v>662.556796944575</v>
+        <v>686.424338775847</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,10 +704,10 @@
         <v>336</v>
       </c>
       <c r="I10" t="n">
-        <v>6.69590959107722</v>
+        <v>-8.42768752080508</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>318.918873052258</v>
+        <v>251.982108085315</v>
       </c>
       <c r="C11" t="n">
-        <v>228.650884585883</v>
+        <v>27.7019585303241</v>
       </c>
       <c r="D11" t="n">
-        <v>195.577550688735</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>475.13051899091</v>
+        <v>497.514661714755</v>
       </c>
       <c r="F11" t="n">
-        <v>608.899206264982</v>
+        <v>573.156989297316</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>390</v>
       </c>
       <c r="I11" t="n">
-        <v>-71.0811269477425</v>
+        <v>-138.017891914685</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>432.404296922976</v>
+        <v>400.364924858017</v>
       </c>
       <c r="C12" t="n">
-        <v>293.162588094531</v>
+        <v>156.935087888828</v>
       </c>
       <c r="D12" t="n">
-        <v>245.123740497224</v>
+        <v>59.3631215618714</v>
       </c>
       <c r="E12" t="n">
-        <v>700.240094681233</v>
+        <v>649.061455988899</v>
       </c>
       <c r="F12" t="n">
-        <v>956.015956524981</v>
+        <v>782.635623926545</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,10 +768,10 @@
         <v>403</v>
       </c>
       <c r="I12" t="n">
-        <v>29.4042969229765</v>
+        <v>-2.63507514198255</v>
       </c>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>540.20108595216</v>
+        <v>432.09132294788</v>
       </c>
       <c r="C13" t="n">
-        <v>349.112744665087</v>
+        <v>177.654259627686</v>
       </c>
       <c r="D13" t="n">
-        <v>286.473044863859</v>
+        <v>0.462911805328096</v>
       </c>
       <c r="E13" t="n">
-        <v>944.232800849205</v>
+        <v>657.916528983637</v>
       </c>
       <c r="F13" t="n">
-        <v>1371.90354825833</v>
+        <v>797.274288281175</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>412</v>
       </c>
       <c r="I13" t="n">
-        <v>128.20108595216</v>
+        <v>20.0913229478803</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>366.018115943136</v>
+        <v>375.762628207056</v>
       </c>
       <c r="C14" t="n">
-        <v>252.240586893127</v>
+        <v>120.084701900924</v>
       </c>
       <c r="D14" t="n">
-        <v>212.289007685092</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>578.070659448524</v>
+        <v>610.463980224304</v>
       </c>
       <c r="F14" t="n">
-        <v>773.962630865267</v>
+        <v>786.006583739881</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>378</v>
       </c>
       <c r="I14" t="n">
-        <v>-11.9818840568636</v>
+        <v>-2.23737179294375</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>266.350107549659</v>
+        <v>211.049623235776</v>
       </c>
       <c r="C15" t="n">
-        <v>192.007109920816</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>164.601320893769</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>393.665664875536</v>
+        <v>427.635298011514</v>
       </c>
       <c r="F15" t="n">
-        <v>501.556330874818</v>
+        <v>594.112238059386</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,10 +864,10 @@
         <v>224</v>
       </c>
       <c r="I15" t="n">
-        <v>42.3501075496587</v>
+        <v>-12.9503767642237</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>435.390641670577</v>
+        <v>428.707913019185</v>
       </c>
       <c r="C16" t="n">
-        <v>287.54418844356</v>
+        <v>152.512215297289</v>
       </c>
       <c r="D16" t="n">
-        <v>237.940293084026</v>
+        <v>34.750949208865</v>
       </c>
       <c r="E16" t="n">
-        <v>734.672951358995</v>
+        <v>683.065341812188</v>
       </c>
       <c r="F16" t="n">
-        <v>1036.60482374249</v>
+        <v>896.446859014036</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,10 +896,10 @@
         <v>430</v>
       </c>
       <c r="I16" t="n">
-        <v>5.3906416705766</v>
+        <v>-1.29208698081476</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>377.340167982259</v>
+        <v>293.937882736729</v>
       </c>
       <c r="C17" t="n">
-        <v>254.296778723129</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>212.109972938224</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>616.702825634103</v>
+        <v>580.200845536878</v>
       </c>
       <c r="F17" t="n">
-        <v>848.046532829312</v>
+        <v>694.12792943947</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,10 +928,10 @@
         <v>304</v>
       </c>
       <c r="I17" t="n">
-        <v>73.3401679822589</v>
+        <v>-10.0621172632705</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>362.593466533505</v>
+        <v>267.455624001414</v>
       </c>
       <c r="C18" t="n">
-        <v>244.747999736367</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>204.272632896673</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>591.117832384041</v>
+        <v>533.835152662004</v>
       </c>
       <c r="F18" t="n">
-        <v>811.240344252911</v>
+        <v>746.925344898613</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>265</v>
       </c>
       <c r="I18" t="n">
-        <v>97.5934665335049</v>
+        <v>2.45562400141426</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>325.793897800857</v>
+        <v>252.250769270682</v>
       </c>
       <c r="C19" t="n">
-        <v>222.87627268106</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>187.014267147449</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>520.249314747392</v>
+        <v>536.402178582377</v>
       </c>
       <c r="F19" t="n">
-        <v>702.476186927708</v>
+        <v>736.739072134555</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>238</v>
       </c>
       <c r="I19" t="n">
-        <v>87.7938978008575</v>
+        <v>14.2507692706815</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>344.185521674322</v>
+        <v>323.015875409476</v>
       </c>
       <c r="C20" t="n">
-        <v>232.035281838328</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>193.563806412072</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>562.15632171853</v>
+        <v>654.736237118339</v>
       </c>
       <c r="F20" t="n">
-        <v>772.617978006476</v>
+        <v>814.52258181934</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>306</v>
       </c>
       <c r="I20" t="n">
-        <v>38.1855216743224</v>
+        <v>17.0158754094764</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>385.361179355287</v>
+        <v>293.818766192505</v>
       </c>
       <c r="C21" t="n">
-        <v>253.179446039114</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>209.068664808154</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>655.61658758145</v>
+        <v>641.813062955009</v>
       </c>
       <c r="F21" t="n">
-        <v>931.254395930278</v>
+        <v>831.176227072986</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>241</v>
       </c>
       <c r="I21" t="n">
-        <v>144.361179355287</v>
+        <v>52.8187661925048</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>342.695909591077</v>
+        <v>293.302343764924</v>
       </c>
       <c r="C22" t="n">
-        <v>228.909138659496</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>190.256947850685</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>567.835735343827</v>
+        <v>617.216694159819</v>
       </c>
       <c r="F22" t="n">
-        <v>789.422706634515</v>
+        <v>789.266343943566</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,10 +1088,10 @@
         <v>296</v>
       </c>
       <c r="I22" t="n">
-        <v>46.6959095910772</v>
+        <v>-2.69765623507584</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>318.918873052258</v>
+        <v>220.035593245952</v>
       </c>
       <c r="C23" t="n">
-        <v>214.75605818567</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>179.063719719687</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>521.769353675766</v>
+        <v>596.833409153599</v>
       </c>
       <c r="F23" t="n">
-        <v>718.048331648945</v>
+        <v>734.714029366778</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>207</v>
       </c>
       <c r="I23" t="n">
-        <v>111.918873052258</v>
+        <v>13.0355932459518</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>432.404296922976</v>
+        <v>382.42284655983</v>
       </c>
       <c r="C24" t="n">
-        <v>273.432651583505</v>
+        <v>16.6103718777158</v>
       </c>
       <c r="D24" t="n">
-        <v>222.491665384499</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>783.492054038715</v>
+        <v>720.474276495849</v>
       </c>
       <c r="F24" t="n">
-        <v>1173.87825707221</v>
+        <v>931.928663614002</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>209</v>
       </c>
       <c r="I24" t="n">
-        <v>223.404296922976</v>
+        <v>173.42284655983</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>540.20108595216</v>
+        <v>418.387151065478</v>
       </c>
       <c r="C25" t="n">
-        <v>323.972462954711</v>
+        <v>1.08433758835054</v>
       </c>
       <c r="D25" t="n">
-        <v>258.45825456598</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1074.20604713418</v>
+        <v>769.849921173434</v>
       </c>
       <c r="F25" t="n">
-        <v>1751.88528306361</v>
+        <v>1008.78302988977</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>327</v>
       </c>
       <c r="I25" t="n">
-        <v>213.20108595216</v>
+        <v>91.3871510654777</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>366.018115943136</v>
+        <v>341.229939518457</v>
       </c>
       <c r="C26" t="n">
-        <v>236.865369723478</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>194.446137506587</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>638.09224701902</v>
+        <v>778.124513427473</v>
       </c>
       <c r="F26" t="n">
-        <v>924.905315665578</v>
+        <v>897.028066135009</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,10 +1216,10 @@
         <v>347</v>
       </c>
       <c r="I26" t="n">
-        <v>19.0181159431364</v>
+        <v>-5.770060481543</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>266.350107549659</v>
+        <v>175.7738364161</v>
       </c>
       <c r="C27" t="n">
-        <v>181.856868371947</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>152.465885370291</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>426.490268399381</v>
+        <v>592.326753049729</v>
       </c>
       <c r="F27" t="n">
-        <v>577.050251236733</v>
+        <v>800.757534685127</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,10 +1248,10 @@
         <v>213</v>
       </c>
       <c r="I27" t="n">
-        <v>53.3501075496587</v>
+        <v>-37.2261635838999</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>435.390641670577</v>
+        <v>404.990492887998</v>
       </c>
       <c r="C28" t="n">
-        <v>269.392211161404</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>217.40598625953</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>818.868276112828</v>
+        <v>838.692266181862</v>
       </c>
       <c r="F28" t="n">
-        <v>1268.10581965211</v>
+        <v>1021.0305859746</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>338</v>
       </c>
       <c r="I28" t="n">
-        <v>97.3906416705766</v>
+        <v>66.9904928879984</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>377.340167982259</v>
+        <v>253.399581687301</v>
       </c>
       <c r="C29" t="n">
-        <v>239.340646661094</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>194.968525835687</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>680.10118456579</v>
+        <v>669.800902431873</v>
       </c>
       <c r="F29" t="n">
-        <v>1014.21603120736</v>
+        <v>885.18623372622</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,10 +1312,10 @@
         <v>283</v>
       </c>
       <c r="I29" t="n">
-        <v>94.3401679822589</v>
+        <v>-29.6004183126989</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>362.593466533505</v>
+        <v>226.586891977538</v>
       </c>
       <c r="C30" t="n">
-        <v>230.787136403677</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>188.248039623783</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>649.695286338947</v>
+        <v>682.992729061677</v>
       </c>
       <c r="F30" t="n">
-        <v>963.947437334293</v>
+        <v>895.167378119089</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,10 +1344,10 @@
         <v>235</v>
       </c>
       <c r="I30" t="n">
-        <v>127.593466533505</v>
+        <v>-8.4131080224625</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>325.793897800857</v>
+        <v>211.217913314712</v>
       </c>
       <c r="C31" t="n">
-        <v>210.861245943923</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>173.100134614088</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>567.76198107559</v>
+        <v>641.576312101165</v>
       </c>
       <c r="F31" t="n">
-        <v>822.662125327537</v>
+        <v>925.922529016783</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,10 +1376,10 @@
         <v>250</v>
       </c>
       <c r="I31" t="n">
-        <v>75.7938978008575</v>
+        <v>-38.7820866852879</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>344.185521674322</v>
+        <v>268.146159788073</v>
       </c>
       <c r="C32" t="n">
-        <v>219.436786375649</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>179.100885074007</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>614.949252480347</v>
+        <v>728.922861629086</v>
       </c>
       <c r="F32" t="n">
-        <v>910.12428696378</v>
+        <v>957.325946194735</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,10 +1408,10 @@
         <v>316</v>
       </c>
       <c r="I32" t="n">
-        <v>28.1855216743224</v>
+        <v>-47.8538402119271</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>385.361179355287</v>
+        <v>255.944319197145</v>
       </c>
       <c r="C33" t="n">
-        <v>239.019005980832</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>193.062119528304</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>721.589414918977</v>
+        <v>743.301506340335</v>
       </c>
       <c r="F33" t="n">
-        <v>1112.96068584736</v>
+        <v>1101.03715730189</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,10 +1440,10 @@
         <v>267</v>
       </c>
       <c r="I33" t="n">
-        <v>118.361179355287</v>
+        <v>-11.0556808028548</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>342.695909591077</v>
+        <v>252.127005465815</v>
       </c>
       <c r="C34" t="n">
-        <v>216.840535183038</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>176.469859062532</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>620.093400602811</v>
+        <v>797.763720342533</v>
       </c>
       <c r="F34" t="n">
-        <v>927.838752989597</v>
+        <v>994.646956455778</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>140</v>
       </c>
       <c r="I34" t="n">
-        <v>202.695909591077</v>
+        <v>112.127005465815</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>318.918873052258</v>
+        <v>188.762868477395</v>
       </c>
       <c r="C35" t="n">
-        <v>203.892397130054</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>166.585992058745</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>567.11834919276</v>
+        <v>737.466978511826</v>
       </c>
       <c r="F35" t="n">
-        <v>835.902264349347</v>
+        <v>1001.22968702156</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>115</v>
       </c>
       <c r="I35" t="n">
-        <v>203.918873052258</v>
+        <v>73.7628684773947</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>432.404296922976</v>
+        <v>344.515055117233</v>
       </c>
       <c r="C36" t="n">
-        <v>258.089934046452</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>205.521389298914</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>867.060181515362</v>
+        <v>882.808286723605</v>
       </c>
       <c r="F36" t="n">
-        <v>1425.20760278625</v>
+        <v>1092.43477375975</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>97</v>
       </c>
       <c r="I36" t="n">
-        <v>335.404296922976</v>
+        <v>247.515055117233</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>540.20108595216</v>
+        <v>366.330473351615</v>
       </c>
       <c r="C37" t="n">
-        <v>304.481379196251</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>237.542597194573</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1208.49495660863</v>
+        <v>990.488530545497</v>
       </c>
       <c r="F37" t="n">
-        <v>2219.97099682563</v>
+        <v>1239.10082905457</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>144</v>
       </c>
       <c r="I37" t="n">
-        <v>396.20108595216</v>
+        <v>222.330473351615</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>366.018115943136</v>
+        <v>286.089599913173</v>
       </c>
       <c r="C38" t="n">
-        <v>224.706676845821</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>180.801111129781</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>697.661476686423</v>
+        <v>878.821343243122</v>
       </c>
       <c r="F38" t="n">
-        <v>1093.48421219651</v>
+        <v>1166.08011258688</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>240</v>
       </c>
       <c r="I38" t="n">
-        <v>126.018115943136</v>
+        <v>46.0895999131729</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>266.350107549659</v>
+        <v>135.757927231754</v>
       </c>
       <c r="C39" t="n">
-        <v>173.706579346929</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>143.010409059064</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>458.314754168664</v>
+        <v>741.199253722133</v>
       </c>
       <c r="F39" t="n">
-        <v>657.002217977372</v>
+        <v>1085.3260401217</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>324</v>
       </c>
       <c r="I39" t="n">
-        <v>-57.6498924503413</v>
+        <v>-188.242072768246</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>435.390641670577</v>
+        <v>343.197607244791</v>
       </c>
       <c r="C40" t="n">
-        <v>254.985345059573</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>201.649935137716</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>904.278598851925</v>
+        <v>906.549666682357</v>
       </c>
       <c r="F40" t="n">
-        <v>1538.28891727384</v>
+        <v>1241.32987485623</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,10 +1664,10 @@
         <v>374</v>
       </c>
       <c r="I40" t="n">
-        <v>61.3906416705766</v>
+        <v>-30.8023927552092</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>377.340167982259</v>
+        <v>215.441994238616</v>
       </c>
       <c r="C41" t="n">
-        <v>227.357345372229</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>181.666947279216</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>743.640031506738</v>
+        <v>823.11868861305</v>
       </c>
       <c r="F41" t="n">
-        <v>1202.22883691781</v>
+        <v>1247.89626559211</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,10 +1696,10 @@
         <v>347</v>
       </c>
       <c r="I41" t="n">
-        <v>30.3401679822589</v>
+        <v>-131.558005761384</v>
       </c>
       <c r="J41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>362.593466533505</v>
+        <v>194.618066777192</v>
       </c>
       <c r="C42" t="n">
-        <v>219.538341474957</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>175.732243046715</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>708.309916377131</v>
+        <v>798.477214037035</v>
       </c>
       <c r="F42" t="n">
-        <v>1135.6419459118</v>
+        <v>1242.86652279273</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,10 +1728,10 @@
         <v>314</v>
       </c>
       <c r="I42" t="n">
-        <v>48.5934665335049</v>
+        <v>-119.381933222808</v>
       </c>
       <c r="J42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>325.793897800857</v>
+        <v>190.061282858765</v>
       </c>
       <c r="C43" t="n">
-        <v>201.107734475029</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>162.136177013859</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>614.963191835694</v>
+        <v>789.876962656561</v>
       </c>
       <c r="F43" t="n">
-        <v>955.28120930239</v>
+        <v>1300.97557934673</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,10 +1760,10 @@
         <v>252</v>
       </c>
       <c r="I43" t="n">
-        <v>73.7938978008575</v>
+        <v>-61.9387171412354</v>
       </c>
       <c r="J43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>344.185521674322</v>
+        <v>262.158308201185</v>
       </c>
       <c r="C44" t="n">
-        <v>209.187129214903</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>167.678840018081</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>667.739780947544</v>
+        <v>922.557798129227</v>
       </c>
       <c r="F44" t="n">
-        <v>1063.70986895066</v>
+        <v>1239.66694664081</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,10 +1792,10 @@
         <v>342</v>
       </c>
       <c r="I44" t="n">
-        <v>2.18552167432239</v>
+        <v>-79.8416917988148</v>
       </c>
       <c r="J44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>385.361179355287</v>
+        <v>229.961616098952</v>
       </c>
       <c r="C45" t="n">
-        <v>227.495756990011</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>180.422718186694</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>788.352473099798</v>
+        <v>877.425709047266</v>
       </c>
       <c r="F45" t="n">
-        <v>1321.10492494284</v>
+        <v>1395.9931068385</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,10 +1824,10 @@
         <v>352</v>
       </c>
       <c r="I45" t="n">
-        <v>33.3611793552871</v>
+        <v>-122.038383901048</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>342.695909591077</v>
+        <v>231.876034738106</v>
       </c>
       <c r="C46" t="n">
-        <v>206.948264970477</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>165.489243011095</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>672.515853164819</v>
+        <v>925.737939812423</v>
       </c>
       <c r="F46" t="n">
-        <v>1082.84785739031</v>
+        <v>1344.03872224719</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>367</v>
       </c>
       <c r="I46" t="n">
-        <v>-24.3040904089228</v>
+        <v>-135.123965261894</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>318.918873052258</v>
+        <v>150.773189142253</v>
       </c>
       <c r="C47" t="n">
-        <v>194.938138778047</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>156.58314988522</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>612.41811693039</v>
+        <v>922.986454224621</v>
       </c>
       <c r="F47" t="n">
-        <v>966.337516424475</v>
+        <v>1321.93387881802</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,10 +1888,10 @@
         <v>311</v>
       </c>
       <c r="I47" t="n">
-        <v>7.91887305225754</v>
+        <v>-160.226810857747</v>
       </c>
       <c r="J47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>432.404296922976</v>
+        <v>318.799243895365</v>
       </c>
       <c r="C48" t="n">
-        <v>245.516752816936</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>192.018877588388</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>953.012388472649</v>
+        <v>959.254248934291</v>
       </c>
       <c r="F48" t="n">
-        <v>1722.79083515236</v>
+        <v>1532.49297893899</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,10 +1920,10 @@
         <v>387</v>
       </c>
       <c r="I48" t="n">
-        <v>45.4042969229765</v>
+        <v>-68.2007561046353</v>
       </c>
       <c r="J48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>540.20108595216</v>
+        <v>340.649779382159</v>
       </c>
       <c r="C49" t="n">
-        <v>288.568188252337</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>220.979764690196</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1350.40450924599</v>
+        <v>1072.71823487833</v>
       </c>
       <c r="F49" t="n">
-        <v>2814.56654617542</v>
+        <v>1587.70853274359</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,10 +1952,10 @@
         <v>354</v>
       </c>
       <c r="I49" t="n">
-        <v>186.20108595216</v>
+        <v>-13.350220617841</v>
       </c>
       <c r="J49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
